--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2C674-B4D9-4AF2-B810-AE08C70524CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6446F4-18FC-4E8C-B3CE-6C58E6C8C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71175" yWindow="1530" windowWidth="27720" windowHeight="16485" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-34860" yWindow="1020" windowWidth="32100" windowHeight="19275" firstSheet="1" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Drugs" sheetId="2" r:id="rId2"/>
-    <sheet name="Literature" sheetId="3" r:id="rId3"/>
-    <sheet name="donanemab" sheetId="4" r:id="rId4"/>
-    <sheet name="bapi" sheetId="5" r:id="rId5"/>
-    <sheet name="lecanemab" sheetId="6" r:id="rId6"/>
-    <sheet name="solanezumab" sheetId="7" r:id="rId7"/>
-    <sheet name="gantenerumab" sheetId="10" r:id="rId8"/>
-    <sheet name="crenezumab" sheetId="9" r:id="rId9"/>
-    <sheet name="Aduhelm" sheetId="8" r:id="rId10"/>
-    <sheet name="amyloid beta" sheetId="11" r:id="rId11"/>
+    <sheet name="Adas-Cog Raw" sheetId="13" r:id="rId2"/>
+    <sheet name="Drugs" sheetId="2" r:id="rId3"/>
+    <sheet name="verubecestat" sheetId="12" r:id="rId4"/>
+    <sheet name="Literature" sheetId="3" r:id="rId5"/>
+    <sheet name="donanemab" sheetId="4" r:id="rId6"/>
+    <sheet name="bapi" sheetId="5" r:id="rId7"/>
+    <sheet name="lecanemab" sheetId="6" r:id="rId8"/>
+    <sheet name="solanezumab" sheetId="7" r:id="rId9"/>
+    <sheet name="gantenerumab" sheetId="10" r:id="rId10"/>
+    <sheet name="crenezumab" sheetId="9" r:id="rId11"/>
+    <sheet name="Aduhelm" sheetId="8" r:id="rId12"/>
+    <sheet name="amyloid beta" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="2533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="2574">
   <si>
     <t>Name</t>
   </si>
@@ -7672,12 +7674,138 @@
   </si>
   <si>
     <t>pKa of three histidines is 6.7</t>
+  </si>
+  <si>
+    <t>latrepirdine</t>
+  </si>
+  <si>
+    <t>Axovant</t>
+  </si>
+  <si>
+    <t>5HT-6 antagonist</t>
+  </si>
+  <si>
+    <t>Dimebon Phase II --&gt; Phase III</t>
+  </si>
+  <si>
+    <t>SB-742457 Phase II --&gt; Phase III</t>
+  </si>
+  <si>
+    <t>Simufilam</t>
+  </si>
+  <si>
+    <t>1.3 (p=0.135) --&gt; 0.4 (failure)</t>
+  </si>
+  <si>
+    <t>4.0 --&gt; 0.1 (failure)</t>
+  </si>
+  <si>
+    <t>Bapineuzumab</t>
+  </si>
+  <si>
+    <t>0.6 (p=NS) --&gt; ?</t>
+  </si>
+  <si>
+    <t>2.3 (p=0.078) --&gt; 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --&gt; 1.5 at 18 months (p&lt;0.001)</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Placebo (vs lecanemab)</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>ADAS-Cog14</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>ADAS-Cog13</t>
+  </si>
+  <si>
+    <t>Donanemab in Early Alzheimer's Disease. Mintun et al. NEJM 2021</t>
+  </si>
+  <si>
+    <t>ADAS-Cog11</t>
+  </si>
+  <si>
+    <t>Effect of dimebon on cognition, activities of daily living, behaviour, and global function in patients with mild-to-moderate Alzheimer’s disease: a randomised, double-blind, placebo-controlled study. Doody et al. Lancet 2008.</t>
+  </si>
+  <si>
+    <t>metrifonate</t>
+  </si>
+  <si>
+    <t>tACS</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>TRanscranial AlterNating current stimulation FOR patients with mild Alzheimer’s Disease (TRANSFORM-AD): a randomized controlled clinical trial. Tang et al. Alzheimer's Research and Therapy 2024.</t>
+  </si>
+  <si>
+    <t>exenatide</t>
+  </si>
+  <si>
+    <t>placebo (no treatment?)</t>
+  </si>
+  <si>
+    <t>Long‑acting exenatide does not prevent cognitive decline in mild cognitive impairment: a proof‑of‑concept clinical trial. Dei Cas et al. J Endocrin Invest 2024.</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>Word recall, naming, commands, constructional praxis, ideational praxis, orientation, word recognition, remembering test instructions, spoken language ability, word finding difficulty, comprehension, concentration</t>
+  </si>
+  <si>
+    <t>The impact of six-week dihydrogen-pyrroloquinoline quinone supplementation on mitochondrial biomarkers, brain metabolism, and cognition in elderly individuals with mild cognitive impairment: a randomized controlled trial. Baltic et al. J Nutrition Health Aging 2024</t>
+  </si>
+  <si>
+    <t>supplements</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Invervention</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC11074813/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38849944/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -7860,7 +7988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -7888,13 +8016,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7AF86D76-5C51-4FDD-B51D-B5D7BB18E1E0}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7906,6 +8042,104 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313968</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206522</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9255EE59-ADDF-6DA2-AF3D-7D1584461F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511897" y="5627914"/>
+          <a:ext cx="3076625" cy="2176528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>416143</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>454661</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43152B57-EEFB-4A0D-BB69-828B141DD286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3805729" y="683171"/>
+          <a:ext cx="4925829" cy="4931093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Martin Shkreli" id="{6F088A7C-6E52-4F1C-85B4-22508E46275A}" userId="9ffda80931a57275" providerId="Windows Live"/>
@@ -7913,9 +8147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7953,7 +8187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8059,7 +8293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8201,7 +8435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8222,7 +8456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835E389-3380-44CD-883B-FD2EDD57702B}">
   <dimension ref="B2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8459,6 +8693,123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C415E8-62BF-43BF-AA26-F6D00AFE8A84}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Drugs!A1" display="Main" xr:uid="{65A9E24B-62B9-4824-B8B5-AB6B96822B00}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FABB64A-0514-46DE-ADE7-E1AB85242C22}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Drugs!A1" display="Drugs" xr:uid="{590567DB-9F30-4E98-97AE-7BB3CF4C264F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2563EE2C-69C9-4A70-A9A2-21051D4E9441}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8526,7 +8877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02032C31-0A5D-4FD1-9074-8F67094EA35C}">
   <dimension ref="A1:C3813"/>
   <sheetViews>
@@ -27767,17 +28118,1680 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="28"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>2551</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>2553</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C3" s="28">
+        <v>90</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F3" s="29">
+        <v>24.37</v>
+      </c>
+      <c r="G3" s="28">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="28">
+        <v>90</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F4" s="29">
+        <v>24.45</v>
+      </c>
+      <c r="G4" s="28">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C5" s="28">
+        <v>180</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F5" s="29">
+        <v>24.37</v>
+      </c>
+      <c r="G5" s="28">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="28">
+        <v>180</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F6" s="29">
+        <v>24.45</v>
+      </c>
+      <c r="G6" s="28">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C7" s="28">
+        <f>9*30</f>
+        <v>270</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F7" s="29">
+        <v>24.37</v>
+      </c>
+      <c r="G7" s="28">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="28">
+        <f>9*30</f>
+        <v>270</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F8" s="29">
+        <v>24.45</v>
+      </c>
+      <c r="G8" s="28">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C9" s="28">
+        <v>365</v>
+      </c>
+      <c r="D9" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F9" s="29">
+        <v>24.37</v>
+      </c>
+      <c r="G9" s="28">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="28">
+        <v>365</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F10" s="29">
+        <v>24.45</v>
+      </c>
+      <c r="G10" s="28">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C11" s="28">
+        <f>15*30</f>
+        <v>450</v>
+      </c>
+      <c r="D11" s="29">
+        <v>3.7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F11" s="29">
+        <v>24.37</v>
+      </c>
+      <c r="G11" s="28">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="28">
+        <f>15*30</f>
+        <v>450</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F12" s="29">
+        <v>24.45</v>
+      </c>
+      <c r="G12" s="28">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C13" s="28">
+        <f>18*30</f>
+        <v>540</v>
+      </c>
+      <c r="D13" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F13" s="29">
+        <v>24.37</v>
+      </c>
+      <c r="G13" s="28">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="28">
+        <f>18*30</f>
+        <v>540</v>
+      </c>
+      <c r="D14" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F14" s="29">
+        <v>24.45</v>
+      </c>
+      <c r="G14" s="28">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C15" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D15" s="29">
+        <v>-0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F15" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G15" s="28">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D16" s="29">
+        <v>-0.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F16" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G16" s="28">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C17" s="28">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F17" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G17" s="28">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="28">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="D18" s="29">
+        <v>-0.2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F18" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G18" s="28">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C19" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F19" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G19" s="28">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D20" s="29">
+        <v>-0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F20" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G20" s="28">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C21" s="28">
+        <f>16*7</f>
+        <v>112</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F21" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G21" s="28">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="28">
+        <f>16*7</f>
+        <v>112</v>
+      </c>
+      <c r="D22" s="29">
+        <v>-0.3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F22" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G22" s="28">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C23" s="28">
+        <f>20*7</f>
+        <v>140</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F23" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G23" s="28">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="28">
+        <f>20*7</f>
+        <v>140</v>
+      </c>
+      <c r="D24" s="29">
+        <v>-0.3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F24" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G24" s="28">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C25" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F25" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G25" s="28">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D26" s="29">
+        <v>-0.3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F26" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G26" s="28">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C27" s="28">
+        <f>28*7</f>
+        <v>196</v>
+      </c>
+      <c r="D27" s="29">
+        <v>-0.1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F27" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G27" s="28">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="28">
+        <f>28*7</f>
+        <v>196</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F28" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G28" s="28">
+        <v>118</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C29" s="28">
+        <f>32*7</f>
+        <v>224</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F29" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G29" s="28">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="28">
+        <f>32*7</f>
+        <v>224</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F30" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G30" s="28">
+        <v>118</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C31" s="28">
+        <f>36*7</f>
+        <v>252</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F31" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G31" s="28">
+        <v>101</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="28">
+        <f>36*7</f>
+        <v>252</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F32" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G32" s="28">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C33" s="28">
+        <f>40*7</f>
+        <v>280</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F33" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G33" s="28">
+        <v>101</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="28">
+        <f>40*7</f>
+        <v>280</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F34" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G34" s="28">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C35" s="28">
+        <f>44*7</f>
+        <v>308</v>
+      </c>
+      <c r="D35" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F35" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G35" s="28">
+        <v>101</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="28">
+        <f>44*7</f>
+        <v>308</v>
+      </c>
+      <c r="D36" s="29">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F36" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G36" s="28">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C37" s="28">
+        <f>48*7</f>
+        <v>336</v>
+      </c>
+      <c r="D37" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F37" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G37" s="28">
+        <v>101</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="28">
+        <f>48*7</f>
+        <v>336</v>
+      </c>
+      <c r="D38" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F38" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G38" s="28">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C39" s="28">
+        <f>52*7</f>
+        <v>364</v>
+      </c>
+      <c r="D39" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F39" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G39" s="28">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="28">
+        <f>52*7</f>
+        <v>364</v>
+      </c>
+      <c r="D40" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F40" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G40" s="28">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C41" s="28">
+        <f>56*7</f>
+        <v>392</v>
+      </c>
+      <c r="D41" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F41" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G41" s="28">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="28">
+        <f>56*7</f>
+        <v>392</v>
+      </c>
+      <c r="D42" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F42" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G42" s="28">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C43" s="28">
+        <f>60*7</f>
+        <v>420</v>
+      </c>
+      <c r="D43" s="29">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F43" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G43" s="28">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="28">
+        <f>60*7</f>
+        <v>420</v>
+      </c>
+      <c r="D44" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F44" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G44" s="28">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C45" s="28">
+        <f>64*7</f>
+        <v>448</v>
+      </c>
+      <c r="D45" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F45" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G45" s="28">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="28">
+        <f>64*7</f>
+        <v>448</v>
+      </c>
+      <c r="D46" s="29">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F46" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G46" s="28">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C47" s="28">
+        <f>68*7</f>
+        <v>476</v>
+      </c>
+      <c r="D47" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F47" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G47" s="28">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="28">
+        <f>68*7</f>
+        <v>476</v>
+      </c>
+      <c r="D48" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F48" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G48" s="28">
+        <v>89</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C49" s="28">
+        <f>72*7</f>
+        <v>504</v>
+      </c>
+      <c r="D49" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F49" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G49" s="28">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="28">
+        <f>72*7</f>
+        <v>504</v>
+      </c>
+      <c r="D50" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F50" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G50" s="28">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C51" s="28">
+        <f>76*7</f>
+        <v>532</v>
+      </c>
+      <c r="D51" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F51" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="G51" s="28">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="28">
+        <f>76*7</f>
+        <v>532</v>
+      </c>
+      <c r="D52" s="29">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F52" s="29">
+        <v>27.6</v>
+      </c>
+      <c r="G52" s="28">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C53" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D53" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F53" s="29">
+        <v>29.9</v>
+      </c>
+      <c r="G53" s="28">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C54" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D54" s="29">
+        <v>-1.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G54" s="28">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C55" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D55" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F55" s="29">
+        <v>29.9</v>
+      </c>
+      <c r="G55" s="28">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C56" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D56" s="29">
+        <v>-1.9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G56" s="28">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C57" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D57" s="29">
+        <v>-3.8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G57" s="28">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C58" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D58" s="29">
+        <v>-2.1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F58" s="29">
+        <v>29.9</v>
+      </c>
+      <c r="G58" s="28">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C59" s="28">
+        <f>52*7</f>
+        <v>364</v>
+      </c>
+      <c r="D59" s="29">
+        <v>-5.6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G59" s="28">
+        <v>59</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C60" s="28">
+        <f>52*7</f>
+        <v>364</v>
+      </c>
+      <c r="D60" s="29">
+        <v>-1.2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F60" s="29">
+        <v>29.9</v>
+      </c>
+      <c r="G60" s="28">
+        <v>61</v>
+      </c>
+      <c r="H60" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C61" s="28">
+        <v>15</v>
+      </c>
+      <c r="D61" s="29">
+        <v>-1.6519999999999999</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F61">
+        <v>18.2</v>
+      </c>
+      <c r="G61" s="28">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C62" s="28">
+        <v>15</v>
+      </c>
+      <c r="D62" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F62" s="29">
+        <v>17.3</v>
+      </c>
+      <c r="G62" s="28">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C63" s="28">
+        <v>90</v>
+      </c>
+      <c r="D63" s="29">
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F63">
+        <v>18.2</v>
+      </c>
+      <c r="G63" s="28">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C64" s="28">
+        <v>90</v>
+      </c>
+      <c r="D64" s="29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F64" s="29">
+        <v>17.3</v>
+      </c>
+      <c r="G64" s="28">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C65" s="28">
+        <f>16*7</f>
+        <v>112</v>
+      </c>
+      <c r="D65" s="29">
+        <v>-2.5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F65" s="29">
+        <v>14.05</v>
+      </c>
+      <c r="G65" s="28">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C66" s="28">
+        <f>16*7</f>
+        <v>112</v>
+      </c>
+      <c r="D66" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F66" s="29">
+        <v>12.16</v>
+      </c>
+      <c r="G66" s="28">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C67" s="28">
+        <f>32*7</f>
+        <v>224</v>
+      </c>
+      <c r="D67" s="29">
+        <v>-1.5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F67" s="29">
+        <v>14.05</v>
+      </c>
+      <c r="G67" s="28">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C68" s="28">
+        <f>32*7</f>
+        <v>224</v>
+      </c>
+      <c r="D68" s="29">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F68" s="29">
+        <v>12.16</v>
+      </c>
+      <c r="G68" s="28">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C69" s="28">
+        <f>6*7</f>
+        <v>42</v>
+      </c>
+      <c r="D69" s="29">
+        <v>-6.2</v>
+      </c>
+      <c r="F69" s="29">
+        <v>18.2</v>
+      </c>
+      <c r="G69" s="28">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C70" s="28">
+        <f>6*7</f>
+        <v>42</v>
+      </c>
+      <c r="D70" s="29">
+        <v>-4.5</v>
+      </c>
+      <c r="F70" s="29">
+        <v>18.7</v>
+      </c>
+      <c r="G70" s="28">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C71" s="28">
+        <v>25</v>
+      </c>
+      <c r="D71" s="29">
+        <v>0.91</v>
+      </c>
+      <c r="F71" s="29">
+        <v>21.25</v>
+      </c>
+      <c r="H71" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C72" s="28">
+        <v>26</v>
+      </c>
+      <c r="D72" s="29">
+        <v>-1.01</v>
+      </c>
+      <c r="F72" s="29">
+        <v>21.44</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
@@ -28071,7 +30085,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>21</v>
       </c>
@@ -28090,7 +30104,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>530</v>
       </c>
@@ -28102,7 +30116,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>534</v>
       </c>
@@ -28117,7 +30131,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>549</v>
       </c>
@@ -28132,32 +30146,41 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
+      <c r="E21" t="s">
+        <v>2535</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2534</v>
+      </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C22" t="s">
+        <v>2533</v>
+      </c>
       <c r="G22" t="s">
         <v>2518</v>
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
@@ -28165,14 +30188,17 @@
         <v>41</v>
       </c>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
@@ -28187,7 +30213,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>537</v>
       </c>
@@ -28199,7 +30225,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
@@ -28214,7 +30240,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
@@ -28229,7 +30255,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>52</v>
@@ -28242,8 +30268,8 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C31" t="s">
@@ -28257,7 +30283,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
@@ -28273,134 +30299,194 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="4"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" t="s">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" t="s">
         <v>525</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>529</v>
       </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" t="s">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" t="s">
         <v>532</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="E42" t="s">
-        <v>540</v>
-      </c>
-      <c r="F42" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
+      </c>
+      <c r="E43" t="s">
+        <v>540</v>
+      </c>
+      <c r="F43" t="s">
+        <v>541</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
-        <v>535</v>
+      <c r="B49" s="30" t="s">
+        <v>2559</v>
       </c>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="10" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>2544</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28418,13 +30504,52 @@
     <hyperlink ref="C12" location="solanezumab!A1" display="solanezumab" xr:uid="{4D65A1B6-7BFB-499B-880D-48A30115E583}"/>
     <hyperlink ref="B12" location="solanezumab!A1" display="LY2062430" xr:uid="{5F6D10DF-227C-4130-AD8E-30547E397AE8}"/>
     <hyperlink ref="C14" location="gantenerumab!A1" display="gantenerumab" xr:uid="{621F09F4-E78D-4C9E-9C39-6D4407E37914}"/>
+    <hyperlink ref="B31" location="verubecestat!A1" display="MK-8931" xr:uid="{F7F88756-13BC-4AA8-BFAE-70EFC6341539}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3AD44-E03D-45FA-9764-4B48B650EA89}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{411BC75C-AC3C-4C0B-A9A8-DF283C50B0B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE267D6-BDDE-4A05-88E6-A834CD3AD9C1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28449,11 +30574,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4A264A-38A5-42EE-B7CD-F6096EA00AB2}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28545,7 +30672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D182190-AA84-4226-95C7-14C5BEA0A912}">
   <dimension ref="A1:C622"/>
   <sheetViews>
@@ -31095,7 +33222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A38397-9190-4D2B-90A9-DD2A68A70408}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -31203,7 +33330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202601BC-B986-4380-A861-0AE17E2DF739}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -31267,121 +33394,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C415E8-62BF-43BF-AA26-F6D00AFE8A84}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Drugs!A1" display="Main" xr:uid="{65A9E24B-62B9-4824-B8B5-AB6B96822B00}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FABB64A-0514-46DE-ADE7-E1AB85242C22}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Drugs!A1" display="Drugs" xr:uid="{590567DB-9F30-4E98-97AE-7BB3CF4C264F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6446F4-18FC-4E8C-B3CE-6C58E6C8C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A007C-A2FA-412C-A095-C881383AB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34860" yWindow="1020" windowWidth="32100" windowHeight="19275" firstSheet="1" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-29685" yWindow="2850" windowWidth="28305" windowHeight="17085" firstSheet="1" activeTab="3" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Adas-Cog Raw" sheetId="13" r:id="rId2"/>
-    <sheet name="Drugs" sheetId="2" r:id="rId3"/>
-    <sheet name="verubecestat" sheetId="12" r:id="rId4"/>
-    <sheet name="Literature" sheetId="3" r:id="rId5"/>
+    <sheet name="Literature" sheetId="3" r:id="rId3"/>
+    <sheet name="Drugs" sheetId="2" r:id="rId4"/>
+    <sheet name="verubecestat" sheetId="12" r:id="rId5"/>
     <sheet name="donanemab" sheetId="4" r:id="rId6"/>
     <sheet name="bapi" sheetId="5" r:id="rId7"/>
     <sheet name="lecanemab" sheetId="6" r:id="rId8"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="2580">
   <si>
     <t>Name</t>
   </si>
@@ -7797,6 +7797,24 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/38849944/</t>
+  </si>
+  <si>
+    <t>ADAS-Cog13 (0-85)</t>
+  </si>
+  <si>
+    <t>28.7-29.3</t>
+  </si>
+  <si>
+    <t>28.53 --&gt; 32.72</t>
+  </si>
+  <si>
+    <t>29.16 --&gt; 34.53</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37459141/</t>
+  </si>
+  <si>
+    <t>1.8 --&gt; 1.3 at 18 months (p&lt;0.001)</t>
   </si>
 </sst>
 </file>
@@ -28121,11 +28139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29781,11 +29799,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE267D6-BDDE-4A05-88E6-A834CD3AD9C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D832545E-69EA-4AE3-81C5-BD2937606728}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30486,6 +30529,16 @@
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>2544</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>2579</v>
       </c>
     </row>
   </sheetData>
@@ -30512,7 +30565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3AD44-E03D-45FA-9764-4B48B650EA89}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -30549,37 +30602,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE267D6-BDDE-4A05-88E6-A834CD3AD9C1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D832545E-69EA-4AE3-81C5-BD2937606728}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4A264A-38A5-42EE-B7CD-F6096EA00AB2}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G10" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30588,12 +30616,12 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -30601,7 +30629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -30609,7 +30637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -30617,7 +30645,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -30625,7 +30653,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>638</v>
       </c>
@@ -30633,34 +30661,79 @@
         <v>639</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>637</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1.33</v>
+      </c>
+      <c r="D18">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F19">
+        <f>32.72-28.53</f>
+        <v>4.1899999999999977</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F20">
+        <f>34.53-29.16</f>
+        <v>5.370000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>+F20-F19</f>
+        <v>1.1800000000000033</v>
       </c>
     </row>
   </sheetData>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A007C-A2FA-412C-A095-C881383AB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB6732-4C2C-4B44-AF62-95C304FD67ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29685" yWindow="2850" windowWidth="28305" windowHeight="17085" firstSheet="1" activeTab="3" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-50430" yWindow="1170" windowWidth="38700" windowHeight="15345" firstSheet="1" activeTab="3" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29827,8 +29827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB6732-4C2C-4B44-AF62-95C304FD67ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E21C7-D4A7-4EE7-820F-F9455F70D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50430" yWindow="1170" windowWidth="38700" windowHeight="15345" firstSheet="1" activeTab="3" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-39735" yWindow="1005" windowWidth="35220" windowHeight="19110" firstSheet="1" activeTab="3" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29827,15 +29827,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E21C7-D4A7-4EE7-820F-F9455F70D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8FCCD6-43D5-404F-B355-9475BEA5AABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39735" yWindow="1005" windowWidth="35220" windowHeight="19110" firstSheet="1" activeTab="3" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-44205" yWindow="2475" windowWidth="37305" windowHeight="16920" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="2580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="2580">
   <si>
     <t>Name</t>
   </si>
@@ -8474,9 +8474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835E389-3380-44CD-883B-FD2EDD57702B}">
   <dimension ref="B2:D40"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28140,10 +28138,10 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29800,26 +29798,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE267D6-BDDE-4A05-88E6-A834CD3AD9C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>2556</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D832545E-69EA-4AE3-81C5-BD2937606728}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{10C41B2C-8709-41AB-9CA1-95F6138F6297}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29827,7 +29833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -30607,7 +30613,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="B10:G11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D3EB5-CB8A-4460-9B1F-6195851DFE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FA402-E2FC-4971-9269-E69A1EA8D6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44805" yWindow="840" windowWidth="34590" windowHeight="19950" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-51330" yWindow="1215" windowWidth="22905" windowHeight="18675" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="2594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="2620">
   <si>
     <t>Name</t>
   </si>
@@ -7757,9 +7757,6 @@
     <t>Sham</t>
   </si>
   <si>
-    <t>TRanscranial AlterNating current stimulation FOR patients with mild Alzheimer’s Disease (TRANSFORM-AD): a randomized controlled clinical trial. Tang et al. Alzheimer's Research and Therapy 2024.</t>
-  </si>
-  <si>
     <t>exenatide</t>
   </si>
   <si>
@@ -7857,6 +7854,87 @@
   </si>
   <si>
     <t>lecanemab 10mg q2w</t>
+  </si>
+  <si>
+    <t>Transcranial AlterNating current stimulation FOR patients with mild Alzheimer’s Disease (TRANSFORM-AD): a randomized controlled clinical trial. Tang et al. Alzheimer's Research and Therapy 2024.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>AADvac1</t>
+  </si>
+  <si>
+    <t>ADAD-Cog11</t>
+  </si>
+  <si>
+    <t>placebo (vs bapineuzumab)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ApoE Carriers</t>
+  </si>
+  <si>
+    <t>ApoE Non-Carriers</t>
+  </si>
+  <si>
+    <t>bapineuzumab 0.5mg/kg</t>
+  </si>
+  <si>
+    <t>bapineuzumab 1.0mg/kg</t>
+  </si>
+  <si>
+    <t>Two Phase 3 Trials of Bapineuzumab in Mild-to-Moderate Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>MMSE Baseline</t>
+  </si>
+  <si>
+    <t>placebo (vs. verubecestat)</t>
+  </si>
+  <si>
+    <t>verubecestat 12mg</t>
+  </si>
+  <si>
+    <t>verubecestat 40mg</t>
+  </si>
+  <si>
+    <t>Randomized Trial of Verubecestat  for Mild-to-Moderate Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>BACE</t>
+  </si>
+  <si>
+    <t>S47445</t>
+  </si>
+  <si>
+    <t>AMPA modulator</t>
+  </si>
+  <si>
+    <t>Servier</t>
+  </si>
+  <si>
+    <t>placebo (vs. S47445)</t>
+  </si>
+  <si>
+    <t>S474445 5mg</t>
+  </si>
+  <si>
+    <t>S474445 15mg</t>
+  </si>
+  <si>
+    <t>S474445 50mg</t>
+  </si>
+  <si>
+    <t>A 24-week double-blind placebo-controlled study of the efficacy and safety of the AMPA modulator S47445 in patients with mild to moderate Alzheimer’s disease and depressive symptoms</t>
   </si>
 </sst>
 </file>
@@ -8054,7 +8132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -8092,6 +8170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8112,7 +8191,1689 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Adas-Cog Raw'!$C$3:$C$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Adas-Cog Raw'!$D$3:$D$140</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99B4-4463-B434-2E6AA86FD331}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="213976959"/>
+        <c:axId val="213977919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="213976959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213977919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="213977919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213976959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>232171</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA4C45F-E934-6D16-1B27-C66BC6B15EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8161,7 +9922,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8172,7 +9933,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>454661</xdr:colOff>
+      <xdr:colOff>454662</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>30643</xdr:rowOff>
     </xdr:to>
@@ -8210,7 +9971,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -28324,19 +30085,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="D140" sqref="C3:D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="28"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="28"/>
@@ -28366,11 +30127,23 @@
       <c r="G2" s="28" t="s">
         <v>2550</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="32" t="s">
         <v>2551</v>
       </c>
+      <c r="I2" s="28" t="s">
+        <v>2552</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>2599</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>2606</v>
+      </c>
       <c r="N2" s="32" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -28392,8 +30165,14 @@
       <c r="G3" s="28">
         <v>844</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>2581</v>
+      <c r="H3" s="33" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -28416,7 +30195,13 @@
         <v>819</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -28439,7 +30224,13 @@
         <v>823</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -28462,7 +30253,13 @@
         <v>793</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -28486,7 +30283,13 @@
         <v>807</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -28510,7 +30313,13 @@
         <v>771</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -28533,7 +30342,13 @@
         <v>770</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -28556,7 +30371,13 @@
         <v>753</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -28580,7 +30401,13 @@
         <v>762</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -28604,7 +30431,13 @@
         <v>730</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -28628,7 +30461,13 @@
         <v>738</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -28652,7 +30491,13 @@
         <v>703</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -28674,13 +30519,19 @@
       <c r="G15" s="28">
         <v>238</v>
       </c>
-      <c r="H15" s="31" t="s">
-        <v>2591</v>
+      <c r="H15" s="33" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="C16" s="28">
         <v>90</v>
@@ -28698,12 +30549,18 @@
         <v>246</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C17" s="28">
         <v>90</v>
@@ -28721,10 +30578,16 @@
         <v>246</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>2546</v>
       </c>
@@ -28745,12 +30608,18 @@
         <v>238</v>
       </c>
       <c r="H18" s="31" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>2591</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>2592</v>
       </c>
       <c r="C19" s="28">
         <f>6*30</f>
@@ -28769,12 +30638,18 @@
         <v>246</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C20" s="28">
         <v>180</v>
@@ -28792,10 +30667,16 @@
         <v>246</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2546</v>
       </c>
@@ -28816,12 +30697,18 @@
         <v>238</v>
       </c>
       <c r="H21" s="31" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>2591</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>2592</v>
       </c>
       <c r="C22" s="28">
         <v>270</v>
@@ -28839,12 +30726,18 @@
         <v>246</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C23" s="28">
         <v>270</v>
@@ -28862,10 +30755,16 @@
         <v>246</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>2546</v>
       </c>
@@ -28885,12 +30784,18 @@
         <v>238</v>
       </c>
       <c r="H24" s="31" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>2591</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>2592</v>
       </c>
       <c r="C25" s="28">
         <v>365</v>
@@ -28908,12 +30813,18 @@
         <v>246</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C26" s="28">
         <v>365</v>
@@ -28931,10 +30842,16 @@
         <v>246</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>2546</v>
       </c>
@@ -28955,12 +30872,18 @@
         <v>238</v>
       </c>
       <c r="H27" s="31" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>2591</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>2592</v>
       </c>
       <c r="C28" s="28">
         <v>450</v>
@@ -28978,12 +30901,18 @@
         <v>246</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C29" s="28">
         <v>450</v>
@@ -29001,10 +30930,16 @@
         <v>246</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>2546</v>
       </c>
@@ -29025,12 +30960,18 @@
         <v>238</v>
       </c>
       <c r="H30" s="31" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>2591</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>2592</v>
       </c>
       <c r="C31" s="28">
         <v>540</v>
@@ -29048,12 +30989,18 @@
         <v>246</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C32" s="28">
         <v>540</v>
@@ -29071,10 +31018,16 @@
         <v>246</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>2552</v>
       </c>
@@ -29094,11 +31047,14 @@
       <c r="G33" s="28">
         <v>120</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="33" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -29118,11 +31074,14 @@
       <c r="G34" s="28">
         <v>125</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>2552</v>
       </c>
@@ -29142,11 +31101,14 @@
       <c r="G35" s="28">
         <v>120</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -29166,11 +31128,14 @@
       <c r="G36" s="28">
         <v>125</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>2552</v>
       </c>
@@ -29190,11 +31155,14 @@
       <c r="G37" s="28">
         <v>115</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>14</v>
       </c>
@@ -29214,11 +31182,14 @@
       <c r="G38" s="28">
         <v>121</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>2552</v>
       </c>
@@ -29238,11 +31209,14 @@
       <c r="G39" s="28">
         <v>115</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>14</v>
       </c>
@@ -29262,11 +31236,14 @@
       <c r="G40" s="28">
         <v>121</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>2552</v>
       </c>
@@ -29286,11 +31263,14 @@
       <c r="G41" s="28">
         <v>115</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>14</v>
       </c>
@@ -29310,11 +31290,14 @@
       <c r="G42" s="28">
         <v>121</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>2552</v>
       </c>
@@ -29334,11 +31317,14 @@
       <c r="G43" s="28">
         <v>112</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>14</v>
       </c>
@@ -29358,11 +31344,14 @@
       <c r="G44" s="28">
         <v>118</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>2552</v>
       </c>
@@ -29382,11 +31371,14 @@
       <c r="G45" s="28">
         <v>112</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>14</v>
       </c>
@@ -29406,11 +31398,14 @@
       <c r="G46" s="28">
         <v>118</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>2552</v>
       </c>
@@ -29430,11 +31425,14 @@
       <c r="G47" s="28">
         <v>112</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -29454,11 +31452,14 @@
       <c r="G48" s="28">
         <v>118</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>2552</v>
       </c>
@@ -29478,11 +31479,14 @@
       <c r="G49" s="28">
         <v>101</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>14</v>
       </c>
@@ -29502,11 +31506,14 @@
       <c r="G50" s="28">
         <v>100</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>2552</v>
       </c>
@@ -29526,11 +31533,14 @@
       <c r="G51" s="28">
         <v>101</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>14</v>
       </c>
@@ -29550,11 +31560,14 @@
       <c r="G52" s="28">
         <v>100</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>2552</v>
       </c>
@@ -29574,11 +31587,14 @@
       <c r="G53" s="28">
         <v>101</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>14</v>
       </c>
@@ -29598,11 +31614,14 @@
       <c r="G54" s="28">
         <v>100</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>2552</v>
       </c>
@@ -29622,11 +31641,14 @@
       <c r="G55" s="28">
         <v>101</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>14</v>
       </c>
@@ -29646,11 +31668,14 @@
       <c r="G56" s="28">
         <v>100</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>2552</v>
       </c>
@@ -29670,11 +31695,14 @@
       <c r="G57" s="28">
         <v>89</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>14</v>
       </c>
@@ -29694,11 +31722,14 @@
       <c r="G58" s="28">
         <v>86</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>2552</v>
       </c>
@@ -29718,11 +31749,14 @@
       <c r="G59" s="28">
         <v>89</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>14</v>
       </c>
@@ -29742,11 +31776,14 @@
       <c r="G60" s="28">
         <v>86</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>2552</v>
       </c>
@@ -29766,11 +31803,14 @@
       <c r="G61" s="28">
         <v>89</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>14</v>
       </c>
@@ -29790,11 +31830,14 @@
       <c r="G62" s="28">
         <v>86</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>2552</v>
       </c>
@@ -29814,11 +31857,14 @@
       <c r="G63" s="28">
         <v>87</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>14</v>
       </c>
@@ -29838,11 +31884,14 @@
       <c r="G64" s="28">
         <v>89</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>2552</v>
       </c>
@@ -29862,11 +31911,14 @@
       <c r="G65" s="28">
         <v>87</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>14</v>
       </c>
@@ -29886,11 +31938,14 @@
       <c r="G66" s="28">
         <v>89</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>2552</v>
       </c>
@@ -29910,11 +31965,14 @@
       <c r="G67" s="28">
         <v>87</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>14</v>
       </c>
@@ -29934,11 +31992,14 @@
       <c r="G68" s="28">
         <v>89</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>2552</v>
       </c>
@@ -29958,11 +32019,14 @@
       <c r="G69" s="28">
         <v>90</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>14</v>
       </c>
@@ -29982,461 +32046,2671 @@
       <c r="G70" s="28">
         <v>91</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="31" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>2552</v>
+        <v>2598</v>
       </c>
       <c r="C71" s="28">
-        <f>12*7</f>
-        <v>84</v>
+        <f>13*7</f>
+        <v>91</v>
       </c>
       <c r="D71" s="29">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E71" t="s">
-        <v>2555</v>
+        <v>2597</v>
       </c>
       <c r="F71" s="29">
-        <v>29.9</v>
+        <v>23.9</v>
       </c>
       <c r="G71" s="28">
-        <v>84</v>
-      </c>
-      <c r="H71" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L71">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>2531</v>
+        <v>2602</v>
       </c>
       <c r="C72" s="28">
-        <f>12*7</f>
-        <v>84</v>
+        <f>13*7</f>
+        <v>91</v>
       </c>
       <c r="D72" s="29">
-        <v>-1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E72" t="s">
-        <v>2555</v>
+        <v>2597</v>
+      </c>
+      <c r="F72" s="29">
+        <v>23.5</v>
       </c>
       <c r="G72" s="28">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L72">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>2552</v>
+        <v>2598</v>
       </c>
       <c r="C73" s="28">
         <f>26*7</f>
         <v>182</v>
       </c>
       <c r="D73" s="29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>2555</v>
+        <v>2597</v>
       </c>
       <c r="F73" s="29">
-        <v>29.9</v>
+        <v>23.9</v>
       </c>
       <c r="G73" s="28">
-        <v>76</v>
-      </c>
-      <c r="H73" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L73">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>2531</v>
+        <v>2602</v>
       </c>
       <c r="C74" s="28">
         <f>26*7</f>
         <v>182</v>
       </c>
       <c r="D74" s="29">
-        <v>-1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E74" t="s">
-        <v>2555</v>
+        <v>2597</v>
+      </c>
+      <c r="F74" s="29">
+        <v>23.5</v>
       </c>
       <c r="G74" s="28">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L74">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>2552</v>
+        <v>2598</v>
       </c>
       <c r="C75" s="28">
         <f>39*7</f>
         <v>273</v>
       </c>
       <c r="D75" s="29">
-        <v>-3.8</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>2555</v>
+        <v>2597</v>
+      </c>
+      <c r="F75" s="29">
+        <v>23.9</v>
       </c>
       <c r="G75" s="28">
-        <v>63</v>
-      </c>
-      <c r="H75" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L75">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>2531</v>
+        <v>2602</v>
       </c>
       <c r="C76" s="28">
         <f>39*7</f>
         <v>273</v>
       </c>
       <c r="D76" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F76" s="29">
+        <v>23.5</v>
+      </c>
+      <c r="G76" s="28">
+        <v>658</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L76">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C77" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D77" s="29">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F77" s="29">
+        <v>23.9</v>
+      </c>
+      <c r="G77" s="28">
+        <v>432</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L77">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C78" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D78" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F78" s="29">
+        <v>23.5</v>
+      </c>
+      <c r="G78" s="28">
+        <v>658</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J78" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K78" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L78">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C79" s="28">
+        <v>365</v>
+      </c>
+      <c r="D79" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F79" s="29">
+        <v>23.9</v>
+      </c>
+      <c r="G79" s="28">
+        <v>432</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I79" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J79" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L79">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C80" s="28">
+        <v>365</v>
+      </c>
+      <c r="D80" s="29">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F80" s="29">
+        <v>23.5</v>
+      </c>
+      <c r="G80" s="28">
+        <v>658</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J80" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L80">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C81" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D81" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F81" s="29">
+        <v>23.9</v>
+      </c>
+      <c r="G81" s="28">
+        <v>432</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J81" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L81">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C82" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D82" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F82" s="29">
+        <v>23.5</v>
+      </c>
+      <c r="G82" s="28">
+        <v>658</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I82" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L82">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C83" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D83" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F83" s="29">
+        <v>23.9</v>
+      </c>
+      <c r="G83" s="28">
+        <v>432</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I83" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L83">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C84" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D84" s="29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F84" s="29">
+        <v>23.5</v>
+      </c>
+      <c r="G84" s="28">
+        <v>658</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I84" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J84" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L84">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C85" s="28">
+        <f>13*7</f>
+        <v>91</v>
+      </c>
+      <c r="D85" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F85" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G85" s="28">
+        <v>493</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L85">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C86" s="28">
+        <f>13*7</f>
+        <v>91</v>
+      </c>
+      <c r="D86" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F86" s="29">
+        <v>22.4</v>
+      </c>
+      <c r="G86" s="28">
+        <v>314</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L86">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C87" s="28">
+        <f>13*7</f>
+        <v>91</v>
+      </c>
+      <c r="D87" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F87" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G87" s="28">
+        <v>307</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I87" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J87" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L87">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C88" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D88" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F88" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G88" s="28">
+        <v>493</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J88" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L88">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C89" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D89" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F89" s="29">
+        <v>22.4</v>
+      </c>
+      <c r="G89" s="28">
+        <v>314</v>
+      </c>
+      <c r="H89" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J89" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L89">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C90" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D90" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F90" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G90" s="28">
+        <v>307</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I90" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L90">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C91" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D91" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F91" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G91" s="28">
+        <v>493</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L91">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C92" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D92" s="29">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F92" s="29">
+        <v>22.4</v>
+      </c>
+      <c r="G92" s="28">
+        <v>314</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J92" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L92">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C93" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D93" s="29">
+        <v>3.8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F93" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G93" s="28">
+        <v>307</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J93" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L93">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C94" s="28">
+        <v>365</v>
+      </c>
+      <c r="D94" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F94" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G94" s="28">
+        <v>493</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L94">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C95" s="28">
+        <v>365</v>
+      </c>
+      <c r="D95" s="29">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F95" s="29">
+        <v>22.4</v>
+      </c>
+      <c r="G95" s="28">
+        <v>314</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J95" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L95">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C96" s="28">
+        <v>365</v>
+      </c>
+      <c r="D96" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F96" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G96" s="28">
+        <v>307</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J96" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L96">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C97" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D97" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F97" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G97" s="28">
+        <v>493</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J97" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L97">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C98" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D98" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F98" s="29">
+        <v>22.4</v>
+      </c>
+      <c r="G98" s="28">
+        <v>314</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J98" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K98" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L98">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C99" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D99" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F99" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G99" s="28">
+        <v>307</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I99" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J99" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L99">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C100" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D100" s="29">
+        <v>7.8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F100" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G100" s="28">
+        <v>493</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J100" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L100">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C101" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D101" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F101" s="29">
+        <v>22.4</v>
+      </c>
+      <c r="G101" s="28">
+        <v>314</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J101" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L101">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C102" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D102" s="29">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F102" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="G102" s="28">
+        <v>307</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I102" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J102" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K102" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L102">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C103" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D103" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F103" s="29">
+        <v>29.9</v>
+      </c>
+      <c r="G103" s="28">
+        <v>84</v>
+      </c>
+      <c r="H103" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J103" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C104" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D104" s="29">
+        <v>-1.5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G104" s="28">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J104" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C105" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D105" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F105" s="29">
+        <v>29.9</v>
+      </c>
+      <c r="G105" s="28">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J105" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C106" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D106" s="29">
+        <v>-1.9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G106" s="28">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J106" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C107" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D107" s="29">
+        <v>-3.8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G107" s="28">
+        <v>63</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J107" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C108" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D108" s="29">
         <v>-2.1</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E108" t="s">
         <v>2555</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F108" s="29">
         <v>29.9</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G108" s="28">
         <v>63</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H108" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+      <c r="I108" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J108" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>2552</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C109" s="28">
         <f>52*7</f>
         <v>364</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D109" s="29">
         <v>-5.6</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E109" t="s">
         <v>2555</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G109" s="28">
         <v>59</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H109" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="I109" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J109" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>2531</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C110" s="28">
         <f>52*7</f>
         <v>364</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D110" s="29">
         <v>-1.2</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E110" t="s">
         <v>2555</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F110" s="29">
         <v>29.9</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G110" s="28">
         <v>61</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H110" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+      <c r="I110" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J110" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C111" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D111" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F111" s="29">
+        <v>21.7</v>
+      </c>
+      <c r="G111" s="28">
+        <v>631</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J111" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L111">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C112" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D112" s="29">
+        <v>7.9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F112" s="29">
+        <v>21.3</v>
+      </c>
+      <c r="G112" s="28">
+        <v>626</v>
+      </c>
+      <c r="H112" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I112" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J112" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L112">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C113" s="28">
+        <f>78*7</f>
+        <v>546</v>
+      </c>
+      <c r="D113" s="29">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F113" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G113" s="28">
+        <v>644</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J113" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L113">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C114" s="28">
+        <f>13*7</f>
+        <v>91</v>
+      </c>
+      <c r="D114" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F114" s="29">
+        <v>21.7</v>
+      </c>
+      <c r="G114" s="28">
+        <v>631</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I114" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J114" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L114">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C115" s="28">
+        <f>13*7</f>
+        <v>91</v>
+      </c>
+      <c r="D115" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F115" s="29">
+        <v>21.3</v>
+      </c>
+      <c r="G115" s="28">
+        <v>626</v>
+      </c>
+      <c r="H115" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J115" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L115">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C116" s="28">
+        <f>13*7</f>
+        <v>91</v>
+      </c>
+      <c r="D116" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F116" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G116" s="28">
+        <v>644</v>
+      </c>
+      <c r="H116" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J116" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L116">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C117" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D117" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F117" s="29">
+        <v>21.7</v>
+      </c>
+      <c r="G117" s="28">
+        <v>631</v>
+      </c>
+      <c r="H117" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I117" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J117" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L117">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C118" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D118" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F118" s="29">
+        <v>21.3</v>
+      </c>
+      <c r="G118" s="28">
+        <v>626</v>
+      </c>
+      <c r="H118" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J118" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L118">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C119" s="28">
+        <f>26*7</f>
+        <v>182</v>
+      </c>
+      <c r="D119" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F119" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G119" s="28">
+        <v>644</v>
+      </c>
+      <c r="H119" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J119" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L119">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C120" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D120" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F120" s="29">
+        <v>21.7</v>
+      </c>
+      <c r="G120" s="28">
+        <v>631</v>
+      </c>
+      <c r="H120" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J120" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L120">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C121" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D121" s="29">
+        <v>3.1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F121" s="29">
+        <v>21.3</v>
+      </c>
+      <c r="G121" s="28">
+        <v>626</v>
+      </c>
+      <c r="H121" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J121" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L121">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C122" s="28">
+        <f>39*7</f>
+        <v>273</v>
+      </c>
+      <c r="D122" s="29">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F122" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G122" s="28">
+        <v>644</v>
+      </c>
+      <c r="H122" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L122">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C123" s="28">
+        <v>365</v>
+      </c>
+      <c r="D123" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F123" s="29">
+        <v>21.7</v>
+      </c>
+      <c r="G123" s="28">
+        <v>631</v>
+      </c>
+      <c r="H123" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J123" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L123">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C124" s="28">
+        <v>365</v>
+      </c>
+      <c r="D124" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F124" s="29">
+        <v>21.3</v>
+      </c>
+      <c r="G124" s="28">
+        <v>626</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I124" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J124" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L124">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C125" s="28">
+        <v>365</v>
+      </c>
+      <c r="D125" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F125" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G125" s="28">
+        <v>644</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I125" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J125" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L125">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C126" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D126" s="29">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F126" s="29">
+        <v>21.7</v>
+      </c>
+      <c r="G126" s="28">
+        <v>631</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I126" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J126" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L126">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C127" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D127" s="29">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F127" s="29">
+        <v>21.3</v>
+      </c>
+      <c r="G127" s="28">
+        <v>626</v>
+      </c>
+      <c r="H127" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I127" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J127" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L127">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C128" s="28">
+        <f>65*7</f>
+        <v>455</v>
+      </c>
+      <c r="D128" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F128" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G128" s="28">
+        <v>644</v>
+      </c>
+      <c r="H128" s="31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I128" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J128" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L128">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C129" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D129" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F129" s="29">
+        <v>23.26</v>
+      </c>
+      <c r="G129" s="28">
+        <v>129</v>
+      </c>
+      <c r="H129" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I129" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J129" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L129">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C130" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D130" s="29">
+        <v>-0.8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F130" s="29">
+        <v>23.76</v>
+      </c>
+      <c r="G130" s="28">
+        <v>129</v>
+      </c>
+      <c r="H130" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I130" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J130" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L130">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C131" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D131" s="29">
+        <v>-1.2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F131" s="29">
+        <v>23</v>
+      </c>
+      <c r="G131" s="28">
+        <v>130</v>
+      </c>
+      <c r="H131" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I131" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J131" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L131">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C132" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D132" s="29">
+        <v>-1.2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F132" s="29">
+        <v>24.22</v>
+      </c>
+      <c r="G132" s="28">
+        <v>130</v>
+      </c>
+      <c r="H132" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I132" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J132" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L132">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C133" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D133" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F133" s="29">
+        <v>23.26</v>
+      </c>
+      <c r="G133" s="28">
+        <v>129</v>
+      </c>
+      <c r="H133" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I133" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J133" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L133">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C134" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D134" s="29">
+        <v>-0.8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F134" s="29">
+        <v>23.76</v>
+      </c>
+      <c r="G134" s="28">
+        <v>129</v>
+      </c>
+      <c r="H134" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I134" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J134" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L134">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C135" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D135" s="29">
+        <v>-0.6</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F135" s="29">
+        <v>23</v>
+      </c>
+      <c r="G135" s="28">
+        <v>130</v>
+      </c>
+      <c r="H135" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I135" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J135" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L135">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C136" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D136" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F136" s="29">
+        <v>24.22</v>
+      </c>
+      <c r="G136" s="28">
+        <v>130</v>
+      </c>
+      <c r="H136" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I136" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J136" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L136">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C137" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D137" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F137" s="29">
+        <v>23.26</v>
+      </c>
+      <c r="G137" s="28">
+        <v>129</v>
+      </c>
+      <c r="H137" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I137" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J137" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L137">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C138" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D138" s="29">
+        <v>-0.1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F138" s="29">
+        <v>23.76</v>
+      </c>
+      <c r="G138" s="28">
+        <v>129</v>
+      </c>
+      <c r="H138" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I138" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J138" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L138">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C139" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D139" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F139" s="29">
+        <v>23</v>
+      </c>
+      <c r="G139" s="28">
+        <v>130</v>
+      </c>
+      <c r="H139" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I139" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L139">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C140" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D140" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F140" s="29">
+        <v>24.22</v>
+      </c>
+      <c r="G140" s="28">
+        <v>130</v>
+      </c>
+      <c r="H140" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I140" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J140" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L140">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>2558</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C141" s="28">
         <v>15</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D141" s="29">
         <v>-1.6519999999999999</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E141" t="s">
         <v>2555</v>
       </c>
-      <c r="F79">
+      <c r="F141">
         <v>18.2</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G141" s="28">
         <v>23</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H141" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C142" s="28">
+        <v>15</v>
+      </c>
+      <c r="D142" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F142" s="29">
+        <v>17.3</v>
+      </c>
+      <c r="G142" s="28">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C143" s="28">
+        <v>90</v>
+      </c>
+      <c r="D143" s="29">
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F143">
+        <v>18.2</v>
+      </c>
+      <c r="G143" s="28">
+        <v>23</v>
+      </c>
+      <c r="H143" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C144" s="28">
+        <v>90</v>
+      </c>
+      <c r="D144" s="29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F144" s="29">
+        <v>17.3</v>
+      </c>
+      <c r="G144" s="28">
+        <v>23</v>
+      </c>
+      <c r="H144" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>2560</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>2559</v>
-      </c>
-      <c r="C80" s="28">
-        <v>15</v>
-      </c>
-      <c r="D80" s="29">
-        <v>0.13</v>
-      </c>
-      <c r="E80" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F80" s="29">
-        <v>17.3</v>
-      </c>
-      <c r="G80" s="28">
-        <v>23</v>
-      </c>
-      <c r="H80" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>2558</v>
-      </c>
-      <c r="C81" s="28">
-        <v>90</v>
-      </c>
-      <c r="D81" s="29">
-        <v>-0.74099999999999999</v>
-      </c>
-      <c r="E81" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F81">
-        <v>18.2</v>
-      </c>
-      <c r="G81" s="28">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>2559</v>
-      </c>
-      <c r="C82" s="28">
-        <v>90</v>
-      </c>
-      <c r="D82" s="29">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F82" s="29">
-        <v>17.3</v>
-      </c>
-      <c r="G82" s="28">
-        <v>23</v>
-      </c>
-      <c r="H82" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>2561</v>
-      </c>
-      <c r="C83" s="28">
+      <c r="C145" s="28">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D145" s="29">
         <v>-2.5</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E145" t="s">
         <v>2555</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F145" s="29">
         <v>14.05</v>
       </c>
-      <c r="G83" s="28">
+      <c r="G145" s="28">
         <v>17</v>
       </c>
-      <c r="H83" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+      <c r="H145" t="s">
         <v>2562</v>
       </c>
-      <c r="C84" s="28">
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C146" s="28">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D84" s="29">
+      <c r="D146" s="29">
         <v>0.5</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E146" t="s">
         <v>2555</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F146" s="29">
         <v>12.16</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G146" s="28">
         <v>15</v>
       </c>
-      <c r="H84" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>2561</v>
-      </c>
-      <c r="C85" s="28">
+      <c r="H146" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C147" s="28">
         <f>32*7</f>
         <v>224</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D147" s="29">
         <v>-1.5</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E147" t="s">
         <v>2555</v>
       </c>
-      <c r="F85" s="29">
+      <c r="F147" s="29">
         <v>14.05</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G147" s="28">
         <v>17</v>
       </c>
-      <c r="H85" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+      <c r="H147" t="s">
         <v>2562</v>
       </c>
-      <c r="C86" s="28">
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C148" s="28">
         <f>32*7</f>
         <v>224</v>
       </c>
-      <c r="D86" s="29">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D148" s="29">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
         <v>2555</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F148" s="29">
         <v>12.16</v>
       </c>
-      <c r="G86" s="28">
+      <c r="G148" s="28">
         <v>15</v>
       </c>
-      <c r="H86" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>2567</v>
-      </c>
-      <c r="C87" s="28">
+      <c r="H148" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C149" s="28">
         <f>6*7</f>
         <v>42</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D149" s="29">
         <v>-6.2</v>
       </c>
-      <c r="F87" s="29">
+      <c r="F149" s="29">
         <v>18.2</v>
       </c>
-      <c r="G87" s="28">
+      <c r="G149" s="28">
         <v>18</v>
       </c>
-      <c r="H87" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>2564</v>
-      </c>
-      <c r="C88" s="28">
+      <c r="H149" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C150" s="28">
         <f>6*7</f>
         <v>42</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D150" s="29">
         <v>-4.5</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F150" s="29">
         <v>18.7</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G150" s="28">
         <v>16</v>
       </c>
-      <c r="H88" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+      <c r="H150" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C151" s="28">
+        <v>25</v>
+      </c>
+      <c r="D151" s="29">
+        <v>0.91</v>
+      </c>
+      <c r="F151" s="29">
+        <v>21.25</v>
+      </c>
+      <c r="H151" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>2568</v>
       </c>
-      <c r="C89" s="28">
-        <v>25</v>
-      </c>
-      <c r="D89" s="29">
-        <v>0.91</v>
-      </c>
-      <c r="F89" s="29">
-        <v>21.25</v>
-      </c>
-      <c r="H89" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+      <c r="C152" s="28">
+        <v>26</v>
+      </c>
+      <c r="D152" s="29">
+        <v>-1.01</v>
+      </c>
+      <c r="F152" s="29">
+        <v>21.44</v>
+      </c>
+      <c r="H152" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C153" s="28">
+        <f>96*7</f>
+        <v>672</v>
+      </c>
+      <c r="D153" s="29">
+        <v>11.7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F153" s="29"/>
+      <c r="G153" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
         <v>2569</v>
       </c>
-      <c r="C90" s="28">
-        <v>26</v>
-      </c>
-      <c r="D90" s="29">
-        <v>-1.01</v>
-      </c>
-      <c r="F90" s="29">
-        <v>21.44</v>
-      </c>
-      <c r="H90" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H91" t="s">
-        <v>2570</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{C476C83D-4280-46B7-984B-2CCCD85B8F01}"/>
+    <hyperlink ref="H15" r:id="rId2" xr:uid="{0031C75C-81EF-48CB-823D-C04E52C26FD1}"/>
+    <hyperlink ref="H33" r:id="rId3" xr:uid="{E4DDCCBE-3C8C-43EE-887B-664854B36C5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -30475,8 +34749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30990,7 +35264,15 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2614</v>
+      </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -31186,7 +35468,7 @@
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
   </sheetData>
@@ -31215,30 +35497,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3AD44-E03D-45FA-9764-4B48B650EA89}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2611</v>
       </c>
     </row>
   </sheetData>
@@ -31339,17 +35641,17 @@
         <v>635</v>
       </c>
       <c r="G15" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
@@ -31362,7 +35664,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="F19">
         <f>32.72-28.53</f>
@@ -31371,7 +35673,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="F20">
         <f>34.53-29.16</f>
@@ -33947,7 +38249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A38397-9190-4D2B-90A9-DD2A68A70408}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -33967,7 +38269,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -33983,7 +38285,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -33991,7 +38293,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -34050,52 +38352,52 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="11" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
   </sheetData>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FA402-E2FC-4971-9269-E69A1EA8D6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18294FEF-7F0C-4E31-BBD6-B80AD2985AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51330" yWindow="1215" windowWidth="22905" windowHeight="18675" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-43710" yWindow="3765" windowWidth="26250" windowHeight="15345" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9836,16 +9836,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>535782</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89296</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>12499</xdr:rowOff>
+      <xdr:rowOff>30358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>232171</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>345280</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:rowOff>101202</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30087,11 +30087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
   <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D140" sqref="C3:D140"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18294FEF-7F0C-4E31-BBD6-B80AD2985AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C625DC-0F6F-42EC-962D-1FC7BC694BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43710" yWindow="3765" windowWidth="26250" windowHeight="15345" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-31005" yWindow="1365" windowWidth="22740" windowHeight="18525" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9836,16 +9836,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>30358</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>79771</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>345280</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101202</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30087,11 +30087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
   <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35557,7 +35557,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C625DC-0F6F-42EC-962D-1FC7BC694BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE80586A-D19E-4C6B-A716-145D89144F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31005" yWindow="1365" windowWidth="22740" windowHeight="18525" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-50520" yWindow="60" windowWidth="23010" windowHeight="19635" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="2620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="2627">
   <si>
     <t>Name</t>
   </si>
@@ -7935,6 +7935,27 @@
   </si>
   <si>
     <t>A 24-week double-blind placebo-controlled study of the efficacy and safety of the AMPA modulator S47445 in patients with mild to moderate Alzheimer’s disease and depressive symptoms</t>
+  </si>
+  <si>
+    <t>usual care</t>
+  </si>
+  <si>
+    <t>exercise program</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Dementia And Physical Activity (DAPA) trial of moderate to high intensity exercise training for people with dementia: randomised controlled trial</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>indomethacin</t>
+  </si>
+  <si>
+    <t>No Effect of One-Year Treatment with Indomethacin on Alzheimer’s Disease Progression: A Randomized Controlled Trial</t>
   </si>
 </sst>
 </file>
@@ -8238,10 +8259,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Adas-Cog Raw'!$C$3:$C$140</c:f>
+              <c:f>'Adas-Cog Raw'!$C$3:$C$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="138"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -8543,117 +8564,141 @@
                   <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="109">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="110">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="111">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="112">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="113">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="114">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="115">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="116">
                   <c:v>546</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="117">
                   <c:v>546</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="118">
                   <c:v>546</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="119">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="120">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="121">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="122">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="123">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="124">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="125">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="126">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="127">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="128">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="129">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="131">
                   <c:v>455</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="132">
                   <c:v>455</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="133">
                   <c:v>455</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="134">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="135">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="136">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="137">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="138">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="139">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="140">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="141">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="142">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="143">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="144">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="145">
                   <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
@@ -8661,10 +8706,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Adas-Cog Raw'!$D$3:$D$140</c:f>
+              <c:f>'Adas-Cog Raw'!$D$3:$D$148</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="138"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>0.9</c:v>
                 </c:pt>
@@ -8966,117 +9011,141 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="109">
                   <c:v>-1.5</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="110">
                   <c:v>2.1</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="111">
                   <c:v>-1.9</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="112">
                   <c:v>-3.8</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="113">
                   <c:v>-2.1</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="114">
                   <c:v>-5.6</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="115">
                   <c:v>-1.2</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="116">
                   <c:v>7.7</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="117">
                   <c:v>7.9</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="118">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="119">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="120">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="121">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="122">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="123">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="124">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="125">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="126">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="127">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="128">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="129">
                   <c:v>4.3</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="131">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="132">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="133">
                   <c:v>6.6</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="134">
                   <c:v>-0.7</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="135">
                   <c:v>-0.8</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="136">
                   <c:v>-1.2</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="137">
                   <c:v>-1.2</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="138">
                   <c:v>-0.7</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="139">
                   <c:v>-0.8</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="140">
                   <c:v>-0.6</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="141">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="142">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="143">
                   <c:v>-0.1</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="144">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="145">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9836,16 +9905,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>79771</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>154183</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79772</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30085,13 +30154,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33202,1076 +33271,1075 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C103" s="28">
+        <f>6*30</f>
+        <v>180</v>
+      </c>
+      <c r="D103" s="29">
+        <f>22.4-F103</f>
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F103" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G103" s="28">
+        <v>137</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J103" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L103">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C104" s="28">
+        <v>180</v>
+      </c>
+      <c r="D104" s="29">
+        <f>22.9-F104</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F104" s="29">
+        <v>21.2</v>
+      </c>
+      <c r="G104" s="28">
+        <v>278</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J104" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L104">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C105" s="28">
+        <v>365</v>
+      </c>
+      <c r="D105" s="29">
+        <f>23.8-F105</f>
+        <v>2.4000000000000021</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F105" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="G105" s="28">
+        <v>137</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J105" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L105">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C106" s="28">
+        <v>365</v>
+      </c>
+      <c r="D106" s="29">
+        <f>25.2-F106</f>
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F106" s="29">
+        <v>21.2</v>
+      </c>
+      <c r="G106" s="28">
+        <v>278</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J106" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L106">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C107" s="28">
+        <f>6*30</f>
+        <v>180</v>
+      </c>
+      <c r="D107" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F107">
+        <v>19.7</v>
+      </c>
+      <c r="G107" s="28">
+        <v>23</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J107" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L107">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C108" s="28">
+        <f>6*30</f>
+        <v>180</v>
+      </c>
+      <c r="D108" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F108">
+        <v>20.2</v>
+      </c>
+      <c r="G108" s="28">
+        <v>20</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I108" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J108" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L108">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C109" s="28">
+        <v>365</v>
+      </c>
+      <c r="D109" s="29">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F109">
+        <v>19.7</v>
+      </c>
+      <c r="G109" s="28">
+        <v>19</v>
+      </c>
+      <c r="H109" s="31" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I109" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J109" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L109">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C110" s="28">
+        <v>365</v>
+      </c>
+      <c r="D110" s="29">
+        <v>7.8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F110">
+        <v>20.2</v>
+      </c>
+      <c r="G110" s="28">
+        <v>19</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J110" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L110">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>2552</v>
       </c>
-      <c r="C103" s="28">
+      <c r="C111" s="28">
         <f>12*7</f>
         <v>84</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D111" s="29">
         <v>0.3</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E111" t="s">
         <v>2555</v>
       </c>
-      <c r="F103" s="29">
+      <c r="F111" s="29">
         <v>29.9</v>
       </c>
-      <c r="G103" s="28">
+      <c r="G111" s="28">
         <v>84</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H111" t="s">
         <v>2556</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I111" t="s">
         <v>2605</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J111" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>2531</v>
       </c>
-      <c r="C104" s="28">
+      <c r="C112" s="28">
         <f>12*7</f>
         <v>84</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D112" s="29">
         <v>-1.5</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E112" t="s">
         <v>2555</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G112" s="28">
         <v>82</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H112" t="s">
         <v>2556</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I112" t="s">
         <v>2605</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J112" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>2552</v>
       </c>
-      <c r="C105" s="28">
+      <c r="C113" s="28">
         <f>26*7</f>
         <v>182</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D113" s="29">
         <v>2.1</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E113" t="s">
         <v>2555</v>
       </c>
-      <c r="F105" s="29">
+      <c r="F113" s="29">
         <v>29.9</v>
       </c>
-      <c r="G105" s="28">
+      <c r="G113" s="28">
         <v>76</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H113" t="s">
         <v>2556</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I113" t="s">
         <v>2605</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J113" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>2531</v>
       </c>
-      <c r="C106" s="28">
+      <c r="C114" s="28">
         <f>26*7</f>
         <v>182</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D114" s="29">
         <v>-1.9</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E114" t="s">
         <v>2555</v>
       </c>
-      <c r="G106" s="28">
+      <c r="G114" s="28">
         <v>77</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H114" t="s">
         <v>2556</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I114" t="s">
         <v>2605</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J114" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>2552</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C115" s="28">
         <f>39*7</f>
         <v>273</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D115" s="29">
         <v>-3.8</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E115" t="s">
         <v>2555</v>
       </c>
-      <c r="G107" s="28">
+      <c r="G115" s="28">
         <v>63</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H115" t="s">
         <v>2556</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I115" t="s">
         <v>2605</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J115" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>2531</v>
       </c>
-      <c r="C108" s="28">
+      <c r="C116" s="28">
         <f>39*7</f>
         <v>273</v>
       </c>
-      <c r="D108" s="29">
+      <c r="D116" s="29">
         <v>-2.1</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E116" t="s">
         <v>2555</v>
       </c>
-      <c r="F108" s="29">
+      <c r="F116" s="29">
         <v>29.9</v>
       </c>
-      <c r="G108" s="28">
+      <c r="G116" s="28">
         <v>63</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H116" t="s">
         <v>2556</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I116" t="s">
         <v>2605</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J116" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>2552</v>
       </c>
-      <c r="C109" s="28">
+      <c r="C117" s="28">
         <f>52*7</f>
         <v>364</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D117" s="29">
         <v>-5.6</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E117" t="s">
         <v>2555</v>
       </c>
-      <c r="G109" s="28">
+      <c r="G117" s="28">
         <v>59</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H117" t="s">
         <v>2556</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I117" t="s">
         <v>2605</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J117" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>2531</v>
       </c>
-      <c r="C110" s="28">
+      <c r="C118" s="28">
         <f>52*7</f>
         <v>364</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D118" s="29">
         <v>-1.2</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E118" t="s">
         <v>2555</v>
       </c>
-      <c r="F110" s="29">
+      <c r="F118" s="29">
         <v>29.9</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G118" s="28">
         <v>61</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H118" t="s">
         <v>2556</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I118" t="s">
         <v>2605</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J118" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>2607</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C119" s="28">
         <f>78*7</f>
         <v>546</v>
       </c>
-      <c r="D111" s="29">
+      <c r="D119" s="29">
         <v>7.7</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E119" t="s">
         <v>2555</v>
       </c>
-      <c r="F111" s="29">
+      <c r="F119" s="29">
         <v>21.7</v>
       </c>
-      <c r="G111" s="28">
+      <c r="G119" s="28">
         <v>631</v>
       </c>
-      <c r="H111" s="31" t="s">
+      <c r="H119" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I119" t="s">
         <v>2605</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J119" t="s">
         <v>2605</v>
       </c>
-      <c r="L111">
+      <c r="L119">
         <v>20.3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>2608</v>
       </c>
-      <c r="C112" s="28">
+      <c r="C120" s="28">
         <f>78*7</f>
         <v>546</v>
       </c>
-      <c r="D112" s="29">
+      <c r="D120" s="29">
         <v>7.9</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E120" t="s">
         <v>2555</v>
       </c>
-      <c r="F112" s="29">
+      <c r="F120" s="29">
         <v>21.3</v>
       </c>
-      <c r="G112" s="28">
+      <c r="G120" s="28">
         <v>626</v>
       </c>
-      <c r="H112" s="31" t="s">
+      <c r="H120" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I120" t="s">
         <v>2605</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J120" t="s">
         <v>2605</v>
       </c>
-      <c r="L112">
+      <c r="L120">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>2609</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C121" s="28">
         <f>78*7</f>
         <v>546</v>
       </c>
-      <c r="D113" s="29">
+      <c r="D121" s="29">
         <v>8</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E121" t="s">
         <v>2555</v>
       </c>
-      <c r="F113" s="29">
+      <c r="F121" s="29">
         <v>21.4</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G121" s="28">
         <v>644</v>
       </c>
-      <c r="H113" s="31" t="s">
+      <c r="H121" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I121" t="s">
         <v>2605</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J121" t="s">
         <v>2605</v>
       </c>
-      <c r="L113">
+      <c r="L121">
         <v>20.2</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>2607</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C122" s="28">
         <f>13*7</f>
         <v>91</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D122" s="29">
         <v>0.2</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E122" t="s">
         <v>2555</v>
       </c>
-      <c r="F114" s="29">
+      <c r="F122" s="29">
         <v>21.7</v>
       </c>
-      <c r="G114" s="28">
+      <c r="G122" s="28">
         <v>631</v>
       </c>
-      <c r="H114" s="31" t="s">
+      <c r="H122" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I122" t="s">
         <v>2605</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J122" t="s">
         <v>2605</v>
       </c>
-      <c r="L114">
+      <c r="L122">
         <v>20.3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>2608</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C123" s="28">
         <f>13*7</f>
         <v>91</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D123" s="29">
         <v>1.2</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E123" t="s">
         <v>2555</v>
       </c>
-      <c r="F115" s="29">
+      <c r="F123" s="29">
         <v>21.3</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G123" s="28">
         <v>626</v>
       </c>
-      <c r="H115" s="31" t="s">
+      <c r="H123" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I123" t="s">
         <v>2605</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J123" t="s">
         <v>2605</v>
       </c>
-      <c r="L115">
+      <c r="L123">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>2609</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C124" s="28">
         <f>13*7</f>
         <v>91</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D124" s="29">
         <v>1.2</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E124" t="s">
         <v>2555</v>
       </c>
-      <c r="F116" s="29">
+      <c r="F124" s="29">
         <v>21.4</v>
       </c>
-      <c r="G116" s="28">
+      <c r="G124" s="28">
         <v>644</v>
       </c>
-      <c r="H116" s="31" t="s">
+      <c r="H124" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I124" t="s">
         <v>2605</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J124" t="s">
         <v>2605</v>
       </c>
-      <c r="L116">
+      <c r="L124">
         <v>20.2</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>2607</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C125" s="28">
         <f>26*7</f>
         <v>182</v>
       </c>
-      <c r="D117" s="29">
+      <c r="D125" s="29">
         <v>0.8</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E125" t="s">
         <v>2555</v>
       </c>
-      <c r="F117" s="29">
+      <c r="F125" s="29">
         <v>21.7</v>
       </c>
-      <c r="G117" s="28">
+      <c r="G125" s="28">
         <v>631</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H125" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I125" t="s">
         <v>2605</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J125" t="s">
         <v>2605</v>
       </c>
-      <c r="L117">
+      <c r="L125">
         <v>20.3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
         <v>2608</v>
       </c>
-      <c r="C118" s="28">
+      <c r="C126" s="28">
         <f>26*7</f>
         <v>182</v>
       </c>
-      <c r="D118" s="29">
+      <c r="D126" s="29">
         <v>1.2</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E126" t="s">
         <v>2555</v>
       </c>
-      <c r="F118" s="29">
+      <c r="F126" s="29">
         <v>21.3</v>
       </c>
-      <c r="G118" s="28">
+      <c r="G126" s="28">
         <v>626</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H126" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I126" t="s">
         <v>2605</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J126" t="s">
         <v>2605</v>
       </c>
-      <c r="L118">
+      <c r="L126">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>2609</v>
       </c>
-      <c r="C119" s="28">
+      <c r="C127" s="28">
         <f>26*7</f>
         <v>182</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D127" s="29">
         <v>1.5</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E127" t="s">
         <v>2555</v>
       </c>
-      <c r="F119" s="29">
+      <c r="F127" s="29">
         <v>21.4</v>
       </c>
-      <c r="G119" s="28">
+      <c r="G127" s="28">
         <v>644</v>
       </c>
-      <c r="H119" s="31" t="s">
+      <c r="H127" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I127" t="s">
         <v>2605</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J127" t="s">
         <v>2605</v>
       </c>
-      <c r="L119">
+      <c r="L127">
         <v>20.2</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>2607</v>
       </c>
-      <c r="C120" s="28">
+      <c r="C128" s="28">
         <f>39*7</f>
         <v>273</v>
       </c>
-      <c r="D120" s="29">
+      <c r="D128" s="29">
         <v>2.4</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E128" t="s">
         <v>2555</v>
       </c>
-      <c r="F120" s="29">
+      <c r="F128" s="29">
         <v>21.7</v>
       </c>
-      <c r="G120" s="28">
+      <c r="G128" s="28">
         <v>631</v>
       </c>
-      <c r="H120" s="31" t="s">
+      <c r="H128" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I128" t="s">
         <v>2605</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J128" t="s">
         <v>2605</v>
       </c>
-      <c r="L120">
+      <c r="L128">
         <v>20.3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>2608</v>
       </c>
-      <c r="C121" s="28">
+      <c r="C129" s="28">
         <f>39*7</f>
         <v>273</v>
       </c>
-      <c r="D121" s="29">
+      <c r="D129" s="29">
         <v>3.1</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E129" t="s">
         <v>2555</v>
       </c>
-      <c r="F121" s="29">
+      <c r="F129" s="29">
         <v>21.3</v>
       </c>
-      <c r="G121" s="28">
+      <c r="G129" s="28">
         <v>626</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="H129" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I129" t="s">
         <v>2605</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J129" t="s">
         <v>2605</v>
       </c>
-      <c r="L121">
+      <c r="L129">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>2609</v>
       </c>
-      <c r="C122" s="28">
+      <c r="C130" s="28">
         <f>39*7</f>
         <v>273</v>
       </c>
-      <c r="D122" s="29">
+      <c r="D130" s="29">
         <v>3</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E130" t="s">
         <v>2555</v>
       </c>
-      <c r="F122" s="29">
+      <c r="F130" s="29">
         <v>21.4</v>
       </c>
-      <c r="G122" s="28">
+      <c r="G130" s="28">
         <v>644</v>
       </c>
-      <c r="H122" s="31" t="s">
+      <c r="H130" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I130" t="s">
         <v>2605</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J130" t="s">
         <v>2605</v>
       </c>
-      <c r="L122">
+      <c r="L130">
         <v>20.2</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
         <v>2607</v>
       </c>
-      <c r="C123" s="28">
+      <c r="C131" s="28">
         <v>365</v>
       </c>
-      <c r="D123" s="29">
+      <c r="D131" s="29">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E131" t="s">
         <v>2555</v>
       </c>
-      <c r="F123" s="29">
+      <c r="F131" s="29">
         <v>21.7</v>
       </c>
-      <c r="G123" s="28">
+      <c r="G131" s="28">
         <v>631</v>
       </c>
-      <c r="H123" s="31" t="s">
+      <c r="H131" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I131" t="s">
         <v>2605</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J131" t="s">
         <v>2605</v>
       </c>
-      <c r="L123">
+      <c r="L131">
         <v>20.3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>2608</v>
       </c>
-      <c r="C124" s="28">
+      <c r="C132" s="28">
         <v>365</v>
       </c>
-      <c r="D124" s="29">
+      <c r="D132" s="29">
         <v>4.3</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E132" t="s">
         <v>2555</v>
       </c>
-      <c r="F124" s="29">
+      <c r="F132" s="29">
         <v>21.3</v>
       </c>
-      <c r="G124" s="28">
+      <c r="G132" s="28">
         <v>626</v>
       </c>
-      <c r="H124" s="31" t="s">
+      <c r="H132" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I132" t="s">
         <v>2605</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J132" t="s">
         <v>2605</v>
       </c>
-      <c r="L124">
+      <c r="L132">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>2609</v>
       </c>
-      <c r="C125" s="28">
+      <c r="C133" s="28">
         <v>365</v>
       </c>
-      <c r="D125" s="29">
+      <c r="D133" s="29">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E133" t="s">
         <v>2555</v>
       </c>
-      <c r="F125" s="29">
+      <c r="F133" s="29">
         <v>21.4</v>
       </c>
-      <c r="G125" s="28">
+      <c r="G133" s="28">
         <v>644</v>
       </c>
-      <c r="H125" s="31" t="s">
+      <c r="H133" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I133" t="s">
         <v>2605</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J133" t="s">
         <v>2605</v>
       </c>
-      <c r="L125">
+      <c r="L133">
         <v>20.2</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>2607</v>
       </c>
-      <c r="C126" s="28">
+      <c r="C134" s="28">
         <f>65*7</f>
         <v>455</v>
       </c>
-      <c r="D126" s="29">
+      <c r="D134" s="29">
         <v>6</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E134" t="s">
         <v>2555</v>
       </c>
-      <c r="F126" s="29">
+      <c r="F134" s="29">
         <v>21.7</v>
       </c>
-      <c r="G126" s="28">
+      <c r="G134" s="28">
         <v>631</v>
       </c>
-      <c r="H126" s="31" t="s">
+      <c r="H134" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I134" t="s">
         <v>2605</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J134" t="s">
         <v>2605</v>
       </c>
-      <c r="L126">
+      <c r="L134">
         <v>20.3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>2608</v>
       </c>
-      <c r="C127" s="28">
+      <c r="C135" s="28">
         <f>65*7</f>
         <v>455</v>
       </c>
-      <c r="D127" s="29">
+      <c r="D135" s="29">
         <v>7</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E135" t="s">
         <v>2555</v>
       </c>
-      <c r="F127" s="29">
+      <c r="F135" s="29">
         <v>21.3</v>
       </c>
-      <c r="G127" s="28">
+      <c r="G135" s="28">
         <v>626</v>
       </c>
-      <c r="H127" s="31" t="s">
+      <c r="H135" s="31" t="s">
         <v>2610</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I135" t="s">
         <v>2605</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J135" t="s">
         <v>2605</v>
       </c>
-      <c r="L127">
+      <c r="L135">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>2609</v>
       </c>
-      <c r="C128" s="28">
+      <c r="C136" s="28">
         <f>65*7</f>
         <v>455</v>
       </c>
-      <c r="D128" s="29">
+      <c r="D136" s="29">
         <v>6.6</v>
-      </c>
-      <c r="E128" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F128" s="29">
-        <v>21.4</v>
-      </c>
-      <c r="G128" s="28">
-        <v>644</v>
-      </c>
-      <c r="H128" s="31" t="s">
-        <v>2610</v>
-      </c>
-      <c r="I128" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J128" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L128">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C129" s="28">
-        <f>4*7</f>
-        <v>28</v>
-      </c>
-      <c r="D129" s="29">
-        <v>-0.7</v>
-      </c>
-      <c r="E129" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F129" s="29">
-        <v>23.26</v>
-      </c>
-      <c r="G129" s="28">
-        <v>129</v>
-      </c>
-      <c r="H129" s="31" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I129" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J129" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L129">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>2616</v>
-      </c>
-      <c r="C130" s="28">
-        <f>4*7</f>
-        <v>28</v>
-      </c>
-      <c r="D130" s="29">
-        <v>-0.8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F130" s="29">
-        <v>23.76</v>
-      </c>
-      <c r="G130" s="28">
-        <v>129</v>
-      </c>
-      <c r="H130" s="31" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I130" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J130" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L130">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C131" s="28">
-        <f>4*7</f>
-        <v>28</v>
-      </c>
-      <c r="D131" s="29">
-        <v>-1.2</v>
-      </c>
-      <c r="E131" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F131" s="29">
-        <v>23</v>
-      </c>
-      <c r="G131" s="28">
-        <v>130</v>
-      </c>
-      <c r="H131" s="31" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I131" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J131" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L131">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C132" s="28">
-        <f>4*7</f>
-        <v>28</v>
-      </c>
-      <c r="D132" s="29">
-        <v>-1.2</v>
-      </c>
-      <c r="E132" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F132" s="29">
-        <v>24.22</v>
-      </c>
-      <c r="G132" s="28">
-        <v>130</v>
-      </c>
-      <c r="H132" s="31" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I132" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J132" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L132">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C133" s="28">
-        <f>12*7</f>
-        <v>84</v>
-      </c>
-      <c r="D133" s="29">
-        <v>-0.7</v>
-      </c>
-      <c r="E133" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F133" s="29">
-        <v>23.26</v>
-      </c>
-      <c r="G133" s="28">
-        <v>129</v>
-      </c>
-      <c r="H133" s="31" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I133" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J133" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L133">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>2616</v>
-      </c>
-      <c r="C134" s="28">
-        <f>12*7</f>
-        <v>84</v>
-      </c>
-      <c r="D134" s="29">
-        <v>-0.8</v>
-      </c>
-      <c r="E134" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F134" s="29">
-        <v>23.76</v>
-      </c>
-      <c r="G134" s="28">
-        <v>129</v>
-      </c>
-      <c r="H134" s="31" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I134" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J134" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L134">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C135" s="28">
-        <f>12*7</f>
-        <v>84</v>
-      </c>
-      <c r="D135" s="29">
-        <v>-0.6</v>
-      </c>
-      <c r="E135" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F135" s="29">
-        <v>23</v>
-      </c>
-      <c r="G135" s="28">
-        <v>130</v>
-      </c>
-      <c r="H135" s="31" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I135" t="s">
-        <v>2605</v>
-      </c>
-      <c r="J135" t="s">
-        <v>2605</v>
-      </c>
-      <c r="L135">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C136" s="28">
-        <f>12*7</f>
-        <v>84</v>
-      </c>
-      <c r="D136" s="29">
-        <v>-0.5</v>
       </c>
       <c r="E136" t="s">
         <v>2555</v>
       </c>
       <c r="F136" s="29">
-        <v>24.22</v>
+        <v>21.4</v>
       </c>
       <c r="G136" s="28">
-        <v>130</v>
+        <v>644</v>
       </c>
       <c r="H136" s="31" t="s">
-        <v>2619</v>
+        <v>2610</v>
       </c>
       <c r="I136" t="s">
         <v>2605</v>
@@ -34280,7 +34348,7 @@
         <v>2605</v>
       </c>
       <c r="L136">
-        <v>19.600000000000001</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -34288,11 +34356,11 @@
         <v>2615</v>
       </c>
       <c r="C137" s="28">
-        <f>24*7</f>
-        <v>168</v>
+        <f>4*7</f>
+        <v>28</v>
       </c>
       <c r="D137" s="29">
-        <v>0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="E137" t="s">
         <v>2555</v>
@@ -34321,11 +34389,11 @@
         <v>2616</v>
       </c>
       <c r="C138" s="28">
-        <f>24*7</f>
-        <v>168</v>
+        <f>4*7</f>
+        <v>28</v>
       </c>
       <c r="D138" s="29">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="E138" t="s">
         <v>2555</v>
@@ -34354,11 +34422,11 @@
         <v>2617</v>
       </c>
       <c r="C139" s="28">
-        <f>24*7</f>
-        <v>168</v>
+        <f>4*7</f>
+        <v>28</v>
       </c>
       <c r="D139" s="29">
-        <v>-0.5</v>
+        <v>-1.2</v>
       </c>
       <c r="E139" t="s">
         <v>2555</v>
@@ -34387,319 +34455,583 @@
         <v>2618</v>
       </c>
       <c r="C140" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D140" s="29">
+        <v>-1.2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F140" s="29">
+        <v>24.22</v>
+      </c>
+      <c r="G140" s="28">
+        <v>130</v>
+      </c>
+      <c r="H140" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I140" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J140" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L140">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C141" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D141" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F141" s="29">
+        <v>23.26</v>
+      </c>
+      <c r="G141" s="28">
+        <v>129</v>
+      </c>
+      <c r="H141" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I141" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L141">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C142" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D142" s="29">
+        <v>-0.8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F142" s="29">
+        <v>23.76</v>
+      </c>
+      <c r="G142" s="28">
+        <v>129</v>
+      </c>
+      <c r="H142" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I142" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J142" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L142">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C143" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D143" s="29">
+        <v>-0.6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F143" s="29">
+        <v>23</v>
+      </c>
+      <c r="G143" s="28">
+        <v>130</v>
+      </c>
+      <c r="H143" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I143" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J143" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L143">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C144" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D144" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F144" s="29">
+        <v>24.22</v>
+      </c>
+      <c r="G144" s="28">
+        <v>130</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I144" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J144" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L144">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C145" s="28">
         <f>24*7</f>
         <v>168</v>
       </c>
-      <c r="D140" s="29">
+      <c r="D145" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F145" s="29">
+        <v>23.26</v>
+      </c>
+      <c r="G145" s="28">
+        <v>129</v>
+      </c>
+      <c r="H145" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I145" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J145" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L145">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C146" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D146" s="29">
+        <v>-0.1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F146" s="29">
+        <v>23.76</v>
+      </c>
+      <c r="G146" s="28">
+        <v>129</v>
+      </c>
+      <c r="H146" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I146" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J146" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L146">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C147" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D147" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F147" s="29">
+        <v>23</v>
+      </c>
+      <c r="G147" s="28">
+        <v>130</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I147" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J147" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L147">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C148" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D148" s="29">
         <v>0.1</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E148" t="s">
         <v>2555</v>
       </c>
-      <c r="F140" s="29">
+      <c r="F148" s="29">
         <v>24.22</v>
       </c>
-      <c r="G140" s="28">
+      <c r="G148" s="28">
         <v>130</v>
       </c>
-      <c r="H140" s="31" t="s">
+      <c r="H148" s="31" t="s">
         <v>2619</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I148" t="s">
         <v>2605</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J148" t="s">
         <v>2605</v>
       </c>
-      <c r="L140">
+      <c r="L148">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
         <v>2558</v>
       </c>
-      <c r="C141" s="28">
+      <c r="C149" s="28">
         <v>15</v>
       </c>
-      <c r="D141" s="29">
+      <c r="D149" s="29">
         <v>-1.6519999999999999</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E149" t="s">
         <v>2555</v>
       </c>
-      <c r="F141">
+      <c r="F149">
         <v>18.2</v>
       </c>
-      <c r="G141" s="28">
+      <c r="G149" s="28">
         <v>23</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H149" t="s">
         <v>2593</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
         <v>2559</v>
       </c>
-      <c r="C142" s="28">
+      <c r="C150" s="28">
         <v>15</v>
       </c>
-      <c r="D142" s="29">
+      <c r="D150" s="29">
         <v>0.13</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E150" t="s">
         <v>2555</v>
       </c>
-      <c r="F142" s="29">
+      <c r="F150" s="29">
         <v>17.3</v>
       </c>
-      <c r="G142" s="28">
+      <c r="G150" s="28">
         <v>23</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H150" t="s">
         <v>2593</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
         <v>2558</v>
       </c>
-      <c r="C143" s="28">
+      <c r="C151" s="28">
         <v>90</v>
       </c>
-      <c r="D143" s="29">
+      <c r="D151" s="29">
         <v>-0.74099999999999999</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E151" t="s">
         <v>2555</v>
       </c>
-      <c r="F143">
+      <c r="F151">
         <v>18.2</v>
       </c>
-      <c r="G143" s="28">
+      <c r="G151" s="28">
         <v>23</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H151" t="s">
         <v>2593</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>2559</v>
       </c>
-      <c r="C144" s="28">
+      <c r="C152" s="28">
         <v>90</v>
       </c>
-      <c r="D144" s="29">
+      <c r="D152" s="29">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E152" t="s">
         <v>2555</v>
       </c>
-      <c r="F144" s="29">
+      <c r="F152" s="29">
         <v>17.3</v>
       </c>
-      <c r="G144" s="28">
+      <c r="G152" s="28">
         <v>23</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H152" t="s">
         <v>2593</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
         <v>2560</v>
       </c>
-      <c r="C145" s="28">
+      <c r="C153" s="28">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D145" s="29">
+      <c r="D153" s="29">
         <v>-2.5</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E153" t="s">
         <v>2555</v>
       </c>
-      <c r="F145" s="29">
+      <c r="F153" s="29">
         <v>14.05</v>
       </c>
-      <c r="G145" s="28">
+      <c r="G153" s="28">
         <v>17</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H153" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>2561</v>
       </c>
-      <c r="C146" s="28">
+      <c r="C154" s="28">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D146" s="29">
+      <c r="D154" s="29">
         <v>0.5</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E154" t="s">
         <v>2555</v>
       </c>
-      <c r="F146" s="29">
+      <c r="F154" s="29">
         <v>12.16</v>
       </c>
-      <c r="G146" s="28">
+      <c r="G154" s="28">
         <v>15</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H154" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
         <v>2560</v>
       </c>
-      <c r="C147" s="28">
+      <c r="C155" s="28">
         <f>32*7</f>
         <v>224</v>
       </c>
-      <c r="D147" s="29">
+      <c r="D155" s="29">
         <v>-1.5</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E155" t="s">
         <v>2555</v>
       </c>
-      <c r="F147" s="29">
+      <c r="F155" s="29">
         <v>14.05</v>
       </c>
-      <c r="G147" s="28">
+      <c r="G155" s="28">
         <v>17</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H155" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
         <v>2561</v>
       </c>
-      <c r="C148" s="28">
+      <c r="C156" s="28">
         <f>32*7</f>
         <v>224</v>
       </c>
-      <c r="D148" s="29">
-        <v>0</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D156" s="29">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
         <v>2555</v>
       </c>
-      <c r="F148" s="29">
+      <c r="F156" s="29">
         <v>12.16</v>
       </c>
-      <c r="G148" s="28">
+      <c r="G156" s="28">
         <v>15</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H156" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
         <v>2566</v>
       </c>
-      <c r="C149" s="28">
+      <c r="C157" s="28">
         <f>6*7</f>
         <v>42</v>
       </c>
-      <c r="D149" s="29">
+      <c r="D157" s="29">
         <v>-6.2</v>
       </c>
-      <c r="F149" s="29">
+      <c r="F157" s="29">
         <v>18.2</v>
       </c>
-      <c r="G149" s="28">
+      <c r="G157" s="28">
         <v>18</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H157" t="s">
         <v>2565</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
         <v>2563</v>
       </c>
-      <c r="C150" s="28">
+      <c r="C158" s="28">
         <f>6*7</f>
         <v>42</v>
       </c>
-      <c r="D150" s="29">
+      <c r="D158" s="29">
         <v>-4.5</v>
       </c>
-      <c r="F150" s="29">
+      <c r="F158" s="29">
         <v>18.7</v>
       </c>
-      <c r="G150" s="28">
+      <c r="G158" s="28">
         <v>16</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H158" t="s">
         <v>2565</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
         <v>2567</v>
       </c>
-      <c r="C151" s="28">
+      <c r="C159" s="28">
         <v>25</v>
       </c>
-      <c r="D151" s="29">
+      <c r="D159" s="29">
         <v>0.91</v>
       </c>
-      <c r="F151" s="29">
+      <c r="F159" s="29">
         <v>21.25</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H159" t="s">
         <v>2570</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
         <v>2568</v>
       </c>
-      <c r="C152" s="28">
+      <c r="C160" s="28">
         <v>26</v>
       </c>
-      <c r="D152" s="29">
+      <c r="D160" s="29">
         <v>-1.01</v>
       </c>
-      <c r="F152" s="29">
+      <c r="F160" s="29">
         <v>21.44</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H160" t="s">
         <v>2570</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
         <v>2596</v>
       </c>
-      <c r="C153" s="28">
+      <c r="C161" s="28">
         <f>96*7</f>
         <v>672</v>
       </c>
-      <c r="D153" s="29">
+      <c r="D161" s="29">
         <v>11.7</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E161" t="s">
         <v>2597</v>
       </c>
-      <c r="F153" s="29"/>
-      <c r="G153" s="28">
+      <c r="F161" s="29"/>
+      <c r="G161" s="28">
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H154" t="s">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
         <v>2569</v>
       </c>
     </row>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE80586A-D19E-4C6B-A716-145D89144F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40431822-B9E7-4B9C-9F38-705B8713D38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50520" yWindow="60" windowWidth="23010" windowHeight="19635" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-22635" yWindow="2400" windowWidth="22335" windowHeight="14880" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="2627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="2639">
   <si>
     <t>Name</t>
   </si>
@@ -7956,6 +7956,42 @@
   </si>
   <si>
     <t>No Effect of One-Year Treatment with Indomethacin on Alzheimer’s Disease Progression: A Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Exercise Alone</t>
+  </si>
+  <si>
+    <t>Exercise+Vitamin D</t>
+  </si>
+  <si>
+    <t>Exercise+Cognitive</t>
+  </si>
+  <si>
+    <t>Exercise+VitD+Cognitive</t>
+  </si>
+  <si>
+    <t>Effects of Exercise Alone or Combined with Cognitive Training and Vitamin D Supplementation to Improve Cognition in Adults with Mild Cognitive Impairment. JAMA Network Open 2023.</t>
+  </si>
+  <si>
+    <t>ADAS-Cog12</t>
+  </si>
+  <si>
+    <t>GV-971</t>
+  </si>
+  <si>
+    <t>A 36-week multicenter, randomized, double-blind, placebo-controlled, parallelgroup, phase 3 clinical trial of sodium oligomannate for mild-to-moderate Alzheimer’s dementia. Alz Res Ther 2021</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Stretching</t>
+  </si>
+  <si>
+    <t>ADAS-Cog</t>
+  </si>
+  <si>
+    <t>Cognitive Effects of Aerobic Exercise in Alzheimer’s Disease: A Pilot Randomized Controlled Trial. J Alz Dis 2021.</t>
   </si>
 </sst>
 </file>
@@ -30154,13 +30190,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W66" sqref="W66"/>
+      <selection pane="bottomRight" activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35011,7 +35047,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>2596</v>
       </c>
@@ -35030,9 +35066,330 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H162" t="s">
         <v>2569</v>
+      </c>
+      <c r="I162" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C163" s="28">
+        <f>30*6</f>
+        <v>180</v>
+      </c>
+      <c r="D163" s="29">
+        <v>-2.41</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F163" s="29">
+        <v>15.3</v>
+      </c>
+      <c r="G163" s="28">
+        <v>34</v>
+      </c>
+      <c r="H163" t="s">
+        <v>2631</v>
+      </c>
+      <c r="I163" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C164" s="28">
+        <f>30*6</f>
+        <v>180</v>
+      </c>
+      <c r="D164" s="29">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F164" s="29">
+        <v>14.5</v>
+      </c>
+      <c r="G164" s="28">
+        <v>35</v>
+      </c>
+      <c r="H164" t="s">
+        <v>2631</v>
+      </c>
+      <c r="I164" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C165" s="28">
+        <f>30*6</f>
+        <v>180</v>
+      </c>
+      <c r="D165" s="29">
+        <v>-0.3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F165" s="29">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G165" s="28">
+        <v>37</v>
+      </c>
+      <c r="H165" t="s">
+        <v>2631</v>
+      </c>
+      <c r="I165" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C166" s="28">
+        <f>30*6</f>
+        <v>180</v>
+      </c>
+      <c r="D166" s="29">
+        <v>-1.4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F166" s="29">
+        <v>15.6</v>
+      </c>
+      <c r="G166" s="28">
+        <v>35</v>
+      </c>
+      <c r="H166" t="s">
+        <v>2631</v>
+      </c>
+      <c r="I166" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C167" s="28">
+        <f>30*6</f>
+        <v>180</v>
+      </c>
+      <c r="D167" s="29">
+        <v>0.23</v>
+      </c>
+      <c r="E167" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F167" s="29">
+        <v>13.7</v>
+      </c>
+      <c r="G167" s="28">
+        <v>34</v>
+      </c>
+      <c r="H167" t="s">
+        <v>2631</v>
+      </c>
+      <c r="I167" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>36843256</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C169" s="28">
+        <f>36*7</f>
+        <v>252</v>
+      </c>
+      <c r="D169" s="29">
+        <v>-1.89</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F169" s="29">
+        <v>21.28</v>
+      </c>
+      <c r="G169" s="28">
+        <v>408</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>2634</v>
+      </c>
+      <c r="I169" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J169" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C170" s="28">
+        <f>36*7</f>
+        <v>252</v>
+      </c>
+      <c r="D170" s="29">
+        <v>0.26</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F170" s="29">
+        <v>20.88</v>
+      </c>
+      <c r="G170" s="28">
+        <v>410</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>2634</v>
+      </c>
+      <c r="I170" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J170" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C171" s="28">
+        <f>6*30</f>
+        <v>180</v>
+      </c>
+      <c r="D171" s="29">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F171" s="29">
+        <v>19.3</v>
+      </c>
+      <c r="G171" s="28">
+        <v>64</v>
+      </c>
+      <c r="H171" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I171" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J171" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C172" s="28">
+        <f>6*30</f>
+        <v>180</v>
+      </c>
+      <c r="D172" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F172" s="29">
+        <v>17.8</v>
+      </c>
+      <c r="G172" s="28">
+        <v>32</v>
+      </c>
+      <c r="H172" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I172" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J172" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C173" s="28">
+        <v>365</v>
+      </c>
+      <c r="D173" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F173" s="29">
+        <v>19.3</v>
+      </c>
+      <c r="G173" s="28">
+        <v>64</v>
+      </c>
+      <c r="H173" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I173" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J173" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C174" s="28">
+        <v>365</v>
+      </c>
+      <c r="D174" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F174" s="29">
+        <v>17.8</v>
+      </c>
+      <c r="G174" s="28">
+        <v>32</v>
+      </c>
+      <c r="H174" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I174" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J174" t="s">
+        <v>2622</v>
       </c>
     </row>
   </sheetData>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40431822-B9E7-4B9C-9F38-705B8713D38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE14AF0-A831-4378-BC23-79621C264FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22635" yWindow="2400" windowWidth="22335" windowHeight="14880" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-40935" yWindow="2355" windowWidth="19875" windowHeight="15990" activeTab="4" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="2639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="2646">
   <si>
     <t>Name</t>
   </si>
@@ -7992,6 +7992,27 @@
   </si>
   <si>
     <t>Cognitive Effects of Aerobic Exercise in Alzheimer’s Disease: A Pilot Randomized Controlled Trial. J Alz Dis 2021.</t>
+  </si>
+  <si>
+    <t>36843256</t>
+  </si>
+  <si>
+    <t>AMBAR</t>
+  </si>
+  <si>
+    <t>MMSE inclusion 18-26</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>prodromal</t>
+  </si>
+  <si>
+    <t>mild-to-moderate</t>
+  </si>
+  <si>
+    <t>40mg, amyloid-beta production inhibited by 75%</t>
   </si>
 </sst>
 </file>
@@ -30190,13 +30211,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H174" sqref="H174"/>
+      <selection pane="bottomRight" activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30208,12 +30229,21 @@
     <col min="7" max="7" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M1" s="11" t="s">
+        <v>2639</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2543</v>
       </c>
@@ -30251,7 +30281,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2546</v>
       </c>
@@ -30280,7 +30310,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -30309,7 +30339,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2546</v>
       </c>
@@ -30338,7 +30368,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -30367,7 +30397,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2546</v>
       </c>
@@ -30397,7 +30427,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -30427,7 +30457,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2546</v>
       </c>
@@ -30456,7 +30486,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -30485,7 +30515,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2546</v>
       </c>
@@ -30515,7 +30545,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -30545,7 +30575,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2546</v>
       </c>
@@ -30575,7 +30605,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -30605,7 +30635,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2546</v>
       </c>
@@ -30634,7 +30664,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>2591</v>
       </c>
@@ -35047,7 +35077,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>2596</v>
       </c>
@@ -35066,15 +35096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H162" t="s">
-        <v>2569</v>
-      </c>
-      <c r="I162" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>2630</v>
       </c>
@@ -35101,7 +35123,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>2629</v>
       </c>
@@ -35128,7 +35150,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>2628</v>
       </c>
@@ -35155,7 +35177,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>2627</v>
       </c>
@@ -35182,7 +35204,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>2567</v>
       </c>
@@ -35209,30 +35231,55 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H168">
-        <v>36843256</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C168" s="28">
+        <f>36*7</f>
+        <v>252</v>
+      </c>
+      <c r="D168" s="29">
+        <v>-1.89</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F168" s="29">
+        <v>21.28</v>
+      </c>
+      <c r="G168" s="28">
+        <v>408</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>2634</v>
+      </c>
+      <c r="I168" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J168" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>2633</v>
+        <v>2552</v>
       </c>
       <c r="C169" s="28">
         <f>36*7</f>
         <v>252</v>
       </c>
       <c r="D169" s="29">
-        <v>-1.89</v>
+        <v>0.26</v>
       </c>
       <c r="E169" t="s">
         <v>2632</v>
       </c>
       <c r="F169" s="29">
-        <v>21.28</v>
+        <v>20.88</v>
       </c>
       <c r="G169" s="28">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H169" s="11" t="s">
         <v>2634</v>
@@ -35244,55 +35291,55 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>2552</v>
+        <v>2635</v>
       </c>
       <c r="C170" s="28">
-        <f>36*7</f>
-        <v>252</v>
+        <f>6*30</f>
+        <v>180</v>
       </c>
       <c r="D170" s="29">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>2632</v>
+        <v>2637</v>
       </c>
       <c r="F170" s="29">
-        <v>20.88</v>
+        <v>19.3</v>
       </c>
       <c r="G170" s="28">
-        <v>410</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>2634</v>
+        <v>64</v>
+      </c>
+      <c r="H170" t="s">
+        <v>2638</v>
       </c>
       <c r="I170" t="s">
-        <v>2605</v>
+        <v>2622</v>
       </c>
       <c r="J170" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="C171" s="28">
         <f>6*30</f>
         <v>180</v>
       </c>
       <c r="D171" s="29">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E171" t="s">
         <v>2637</v>
       </c>
       <c r="F171" s="29">
-        <v>19.3</v>
+        <v>17.8</v>
       </c>
       <c r="G171" s="28">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H171" t="s">
         <v>2638</v>
@@ -35304,25 +35351,24 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="C172" s="28">
-        <f>6*30</f>
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="D172" s="29">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="E172" t="s">
         <v>2637</v>
       </c>
       <c r="F172" s="29">
-        <v>17.8</v>
+        <v>19.3</v>
       </c>
       <c r="G172" s="28">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H172" t="s">
         <v>2638</v>
@@ -35334,24 +35380,24 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="C173" s="28">
         <v>365</v>
       </c>
       <c r="D173" s="29">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E173" t="s">
         <v>2637</v>
       </c>
       <c r="F173" s="29">
-        <v>19.3</v>
+        <v>17.8</v>
       </c>
       <c r="G173" s="28">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H173" t="s">
         <v>2638</v>
@@ -35363,33 +35409,577 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>2636</v>
+        <v>2642</v>
       </c>
       <c r="C174" s="28">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="D174" s="29">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="E174" t="s">
         <v>2637</v>
       </c>
-      <c r="F174" s="29">
-        <v>17.8</v>
-      </c>
-      <c r="G174" s="28">
-        <v>32</v>
-      </c>
       <c r="H174" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="I174" t="s">
-        <v>2622</v>
+        <v>2605</v>
       </c>
       <c r="J174" t="s">
-        <v>2622</v>
+        <v>2605</v>
+      </c>
+      <c r="K174" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C175" s="28">
+        <v>30</v>
+      </c>
+      <c r="D175" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H175" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I175" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J175" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K175" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C176" s="28">
+        <v>60</v>
+      </c>
+      <c r="D176" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H176" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I176" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J176" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K176" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C177" s="28">
+        <v>60</v>
+      </c>
+      <c r="D177" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H177" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I177" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J177" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K177" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C178" s="28">
+        <v>90</v>
+      </c>
+      <c r="D178" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H178" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I178" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J178" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K178" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C179" s="28">
+        <v>90</v>
+      </c>
+      <c r="D179" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H179" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I179" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J179" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K179" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C180" s="28">
+        <v>120</v>
+      </c>
+      <c r="D180" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H180" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I180" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J180" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K180" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C181" s="28">
+        <v>120</v>
+      </c>
+      <c r="D181" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H181" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I181" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J181" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K181" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C182" s="28">
+        <v>150</v>
+      </c>
+      <c r="D182" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H182" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I182" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J182" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K182" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C183" s="28">
+        <v>150</v>
+      </c>
+      <c r="D183" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H183" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I183" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J183" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K183" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C184" s="28">
+        <v>180</v>
+      </c>
+      <c r="D184" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H184" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I184" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J184" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K184" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C185" s="28">
+        <v>180</v>
+      </c>
+      <c r="D185" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H185" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I185" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J185" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K185" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C186" s="28">
+        <v>210</v>
+      </c>
+      <c r="D186" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H186" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I186" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J186" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K186" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C187" s="28">
+        <v>210</v>
+      </c>
+      <c r="D187" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H187" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I187" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J187" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K187" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C188" s="28">
+        <f>30*8</f>
+        <v>240</v>
+      </c>
+      <c r="D188" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H188" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I188" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J188" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K188" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C189" s="28">
+        <v>240</v>
+      </c>
+      <c r="D189" s="29">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H189" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I189" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J189" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K189" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C190" s="28">
+        <v>270</v>
+      </c>
+      <c r="D190" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H190" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I190" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J190" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K190" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C191" s="28">
+        <v>270</v>
+      </c>
+      <c r="D191" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H191" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I191" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J191" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K191" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C192" s="28">
+        <v>300</v>
+      </c>
+      <c r="D192" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E192" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H192" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I192" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J192" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K192" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C193" s="28">
+        <v>300</v>
+      </c>
+      <c r="D193" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H193" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I193" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J193" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K193" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C194" s="28">
+        <v>300</v>
+      </c>
+      <c r="D194" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H194" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I194" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J194" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K194" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C195" s="28">
+        <v>300</v>
+      </c>
+      <c r="D195" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H195" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I195" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J195" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K195" t="s">
+        <v>2641</v>
       </c>
     </row>
   </sheetData>
@@ -36186,10 +36776,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3AD44-E03D-45FA-9764-4B48B650EA89}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36230,6 +36820,21 @@
       </c>
       <c r="C5" t="s">
         <v>2611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>2645</v>
       </c>
     </row>
   </sheetData>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE14AF0-A831-4378-BC23-79621C264FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513B0A2-AEF8-4A45-95EC-25A4DD25E467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40935" yWindow="2355" windowWidth="19875" windowHeight="15990" activeTab="4" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-35625" yWindow="2460" windowWidth="30810" windowHeight="15975" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -10550,7 +10550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835E389-3380-44CD-883B-FD2EDD57702B}">
   <dimension ref="B2:D40"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30213,11 +30213,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
   <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B195" sqref="B195"/>
+      <selection pane="bottomRight" activeCell="AP18" sqref="AP18:AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36028,8 +36028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A33" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36719,6 +36719,7 @@
       <c r="B62" t="s">
         <v>2540</v>
       </c>
+      <c r="C62" s="25"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
@@ -36778,7 +36779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3AD44-E03D-45FA-9764-4B48B650EA89}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513B0A2-AEF8-4A45-95EC-25A4DD25E467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BAA511-5FA2-4770-A76F-F1ABB4527E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35625" yWindow="2460" windowWidth="30810" windowHeight="15975" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-33090" yWindow="2910" windowWidth="32820" windowHeight="15960" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="2646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="2652">
   <si>
     <t>Name</t>
   </si>
@@ -8013,6 +8013,24 @@
   </si>
   <si>
     <t>40mg, amyloid-beta production inhibited by 75%</t>
+  </si>
+  <si>
+    <t>Accupuncture</t>
+  </si>
+  <si>
+    <t>Donepezil</t>
+  </si>
+  <si>
+    <t>Acupuncture for patients with mild to moderate Alzheimer’s disease: a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>ABT-126 25mg</t>
+  </si>
+  <si>
+    <t>ABT-126 50mg</t>
+  </si>
+  <si>
+    <t>ABT-126 75mg</t>
   </si>
 </sst>
 </file>
@@ -8316,10 +8334,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Adas-Cog Raw'!$C$3:$C$148</c:f>
+              <c:f>'Adas-Cog Raw'!$C$3:$C$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -8756,6 +8774,249 @@
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="145">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
@@ -8763,10 +9024,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Adas-Cog Raw'!$D$3:$D$148</c:f>
+              <c:f>'Adas-Cog Raw'!$D$3:$D$230</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>0.9</c:v>
                 </c:pt>
@@ -9204,6 +9465,249 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-1.6519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.41</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-4.08</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-1.97</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9962,16 +10466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>79772</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53921</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511627</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104943</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>194582</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30211,13 +30715,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP18" sqref="AP18:AQ19"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35935,10 +36439,11 @@
         <v>2642</v>
       </c>
       <c r="C194" s="28">
-        <v>300</v>
+        <f>11*30</f>
+        <v>330</v>
       </c>
       <c r="D194" s="29">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E194" t="s">
         <v>2637</v>
@@ -35961,10 +36466,11 @@
         <v>2567</v>
       </c>
       <c r="C195" s="28">
-        <v>300</v>
+        <f>11*30</f>
+        <v>330</v>
       </c>
       <c r="D195" s="29">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E195" t="s">
         <v>2637</v>
@@ -35980,6 +36486,885 @@
       </c>
       <c r="K195" t="s">
         <v>2641</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C196" s="28">
+        <v>360</v>
+      </c>
+      <c r="D196" s="29">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H196" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I196" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J196" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K196" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C197" s="28">
+        <v>360</v>
+      </c>
+      <c r="D197" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H197" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I197" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J197" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K197" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C198" s="28">
+        <f>13*30</f>
+        <v>390</v>
+      </c>
+      <c r="D198" s="29">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H198" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I198" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J198" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K198" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C199" s="28">
+        <f>13*30</f>
+        <v>390</v>
+      </c>
+      <c r="D199" s="29">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H199" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I199" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J199" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K199" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C200" s="28">
+        <f>14*30</f>
+        <v>420</v>
+      </c>
+      <c r="D200" s="29">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H200" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I200" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J200" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K200" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C201" s="28">
+        <f>14*30</f>
+        <v>420</v>
+      </c>
+      <c r="D201" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H201" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I201" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J201" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K201" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C202" s="28">
+        <f>16*7</f>
+        <v>112</v>
+      </c>
+      <c r="D202" s="29">
+        <v>-4.08</v>
+      </c>
+      <c r="E202" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F202">
+        <v>29.38</v>
+      </c>
+      <c r="G202" s="28">
+        <v>43</v>
+      </c>
+      <c r="H202" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I202" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J202" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C203" s="28">
+        <f>16*7</f>
+        <v>112</v>
+      </c>
+      <c r="D203" s="29">
+        <v>-1.97</v>
+      </c>
+      <c r="E203" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F203">
+        <v>30.15</v>
+      </c>
+      <c r="G203" s="28">
+        <v>44</v>
+      </c>
+      <c r="H203" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I203" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J203" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C204" s="28">
+        <f>28*7</f>
+        <v>196</v>
+      </c>
+      <c r="D204" s="29">
+        <v>-3.1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F204">
+        <v>29.38</v>
+      </c>
+      <c r="G204" s="28">
+        <v>43</v>
+      </c>
+      <c r="H204" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I204" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J204" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C205" s="28">
+        <f>28*7</f>
+        <v>196</v>
+      </c>
+      <c r="D205" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E205" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F205">
+        <v>30.15</v>
+      </c>
+      <c r="G205" s="28">
+        <v>44</v>
+      </c>
+      <c r="H205" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I205" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J205" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C206" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D206" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G206" s="28">
+        <v>72</v>
+      </c>
+      <c r="I206" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J206" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C207" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D207" s="29">
+        <v>-0.2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G207" s="28">
+        <v>100</v>
+      </c>
+      <c r="I207" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J207" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C208" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D208" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E208" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G208" s="28">
+        <v>69</v>
+      </c>
+      <c r="I208" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J208" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C209" s="28">
+        <v>28</v>
+      </c>
+      <c r="D209" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G209" s="28">
+        <v>68</v>
+      </c>
+      <c r="I209" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J209" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C210" s="28">
+        <f>4*7</f>
+        <v>28</v>
+      </c>
+      <c r="D210" s="29">
+        <v>-0.9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G210" s="28">
+        <v>96</v>
+      </c>
+      <c r="I210" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J210" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C211" s="28">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="D211" s="29">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E211" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G211" s="28">
+        <v>69</v>
+      </c>
+      <c r="I211" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J211" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C212" s="28">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="D212" s="29">
+        <v>-1.4</v>
+      </c>
+      <c r="E212" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G212" s="28">
+        <v>98</v>
+      </c>
+      <c r="I212" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J212" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C213" s="28">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="D213" s="29">
+        <v>-1.3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G213" s="28">
+        <v>66</v>
+      </c>
+      <c r="I213" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J213" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C214" s="28">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="D214" s="29">
+        <v>-1.2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G214" s="28">
+        <v>59</v>
+      </c>
+      <c r="I214" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J214" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C215" s="28">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="D215" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E215" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G215" s="28">
+        <v>95</v>
+      </c>
+      <c r="I215" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J215" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C216" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D216" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G216" s="28">
+        <v>68</v>
+      </c>
+      <c r="I216" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J216" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C217" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D217" s="29">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E217" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G217" s="28">
+        <v>95</v>
+      </c>
+      <c r="I217" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J217" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C218" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D218" s="29">
+        <v>-1.3</v>
+      </c>
+      <c r="E218" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G218" s="28">
+        <v>65</v>
+      </c>
+      <c r="I218" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J218" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C219" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D219" s="29">
+        <v>-3.2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G219" s="28">
+        <v>61</v>
+      </c>
+      <c r="I219" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J219" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C220" s="28">
+        <f>12*7</f>
+        <v>84</v>
+      </c>
+      <c r="D220" s="29">
+        <v>-0.6</v>
+      </c>
+      <c r="E220" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G220" s="28">
+        <v>92</v>
+      </c>
+      <c r="I220" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J220" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C221" s="28">
+        <f>18*7</f>
+        <v>126</v>
+      </c>
+      <c r="D221" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="E221" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G221" s="28">
+        <v>65</v>
+      </c>
+      <c r="I221" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J221" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C222" s="28">
+        <f>18*7</f>
+        <v>126</v>
+      </c>
+      <c r="D222" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E222" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G222" s="28">
+        <v>92</v>
+      </c>
+      <c r="I222" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J222" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C223" s="28">
+        <f>18*7</f>
+        <v>126</v>
+      </c>
+      <c r="D223" s="29">
+        <v>-1.4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G223" s="28">
+        <v>63</v>
+      </c>
+      <c r="I223" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J223" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C224" s="28">
+        <f>18*7</f>
+        <v>126</v>
+      </c>
+      <c r="D224" s="29">
+        <v>-2.5</v>
+      </c>
+      <c r="E224" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G224" s="28">
+        <v>60</v>
+      </c>
+      <c r="I224" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J224" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C225" s="28">
+        <f>18*7</f>
+        <v>126</v>
+      </c>
+      <c r="D225" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E225" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G225" s="28">
+        <v>91</v>
+      </c>
+      <c r="I225" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J225" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C226" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D226" s="29">
+        <v>-0.7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G226" s="28">
+        <v>63</v>
+      </c>
+      <c r="I226" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J226" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C227" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D227" s="29">
+        <v>-1.3</v>
+      </c>
+      <c r="E227" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G227" s="28">
+        <v>90</v>
+      </c>
+      <c r="I227" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J227" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C228" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D228" s="29">
+        <v>-1.4</v>
+      </c>
+      <c r="E228" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G228" s="28">
+        <v>62</v>
+      </c>
+      <c r="I228" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J228" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C229" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D229" s="29">
+        <v>-2.6</v>
+      </c>
+      <c r="E229" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G229" s="28">
+        <v>59</v>
+      </c>
+      <c r="I229" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J229" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C230" s="28">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="D230" s="29">
+        <v>-0.3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G230" s="28">
+        <v>88</v>
+      </c>
+      <c r="I230" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J230" t="s">
+        <v>2605</v>
       </c>
     </row>
   </sheetData>

--- a/Alzheimer's.xlsx
+++ b/Alzheimer's.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BAA511-5FA2-4770-A76F-F1ABB4527E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EAB9AD-542E-41B6-83C5-C00422252A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33090" yWindow="2910" windowWidth="32820" windowHeight="15960" activeTab="1" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
+    <workbookView xWindow="-25845" yWindow="2520" windowWidth="25215" windowHeight="16575" activeTab="3" xr2:uid="{3DB1B341-C349-45CE-8B3C-A48AF4C5DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8228,7 +8228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -8267,6 +8267,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30717,11 +30718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178605DD-42A6-477A-B19E-71CF1B2C86A8}">
   <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37413,8 +37414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C21B7-4763-4FF8-84CA-74B3A916DA87}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="C65" sqref="B64:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38040,31 +38041,31 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="s">
         <v>2557</v>
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>548</v>
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>535</v>
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>536</v>
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>524</v>
       </c>
@@ -38075,63 +38076,72 @@
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>2538</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>2535</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>2537</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>2536</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>2540</v>
       </c>
       <c r="C62" s="25"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
       <c r="B64" s="10" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="C64" s="26"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="26"/>
+      <c r="B65" s="34" t="s">
         <v>2541</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="34"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>2542</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>2576</v>
       </c>
